--- a/capiq_data/in_process_data/IQ327408.xlsx
+++ b/capiq_data/in_process_data/IQ327408.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A08CAC-1134-4F3C-A164-53C0BC0EAC61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318646F8-C4BA-449A-B5B1-813E7BA12DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b7e341c1-bca6-4e2f-b2e2-28364ba3bddd"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"7be835bf-63d0-4b48-a750-e7ec12898f31"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>57.207000000000001</v>
       </c>
       <c r="E2">
-        <v>339.72300000000001</v>
+        <v>39.662999999999997</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.985999999999997</v>
       </c>
       <c r="G2">
-        <v>954.80700000000002</v>
+        <v>124.88800000000001</v>
       </c>
       <c r="H2">
-        <v>1857.3520000000001</v>
+        <v>166.99100000000001</v>
       </c>
       <c r="I2">
-        <v>85.881</v>
+        <v>16.247</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>75.484999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.716000000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>249.95099999999999</v>
+        <v>56.469000000000001</v>
       </c>
       <c r="O2">
-        <v>334.80399999999997</v>
+        <v>137.96600000000001</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>94.304000000000002</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>3215</v>
+        <v>687</v>
       </c>
       <c r="T2">
-        <v>1522.548</v>
+        <v>29.024999999999999</v>
       </c>
       <c r="U2">
-        <v>193.137</v>
+        <v>11.858000000000001</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>11.644</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-4.1310000000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2.5760000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>51.314999999999998</v>
+        <v>3.8740000000000001</v>
       </c>
       <c r="D3">
-        <v>375.96899999999999</v>
+        <v>50.472000000000001</v>
       </c>
       <c r="E3">
-        <v>321.76900000000001</v>
+        <v>36.237000000000002</v>
       </c>
       <c r="F3">
-        <v>196.512</v>
+        <v>27.291</v>
       </c>
       <c r="G3">
-        <v>1022.44</v>
+        <v>110.73</v>
       </c>
       <c r="H3">
-        <v>1933.9590000000001</v>
+        <v>154.90899999999999</v>
       </c>
       <c r="I3">
-        <v>85.352000000000004</v>
+        <v>9.5630000000000006</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>69.906000000000006</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.500999999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-9.6419999999999995</v>
       </c>
       <c r="N3">
-        <v>238.49600000000001</v>
+        <v>46.008000000000003</v>
       </c>
       <c r="O3">
-        <v>331.24299999999999</v>
+        <v>122.92100000000001</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>84.27</v>
       </c>
       <c r="Q3">
-        <v>57.091999999999999</v>
+        <v>-2.8439999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1602.7159999999999</v>
+        <v>31.988</v>
       </c>
       <c r="U3">
-        <v>250.22900000000001</v>
+        <v>9.0139999999999993</v>
       </c>
       <c r="V3">
-        <v>62.386000000000003</v>
+        <v>8.7289999999999992</v>
       </c>
       <c r="W3">
-        <v>-9.5709999999999997</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7.7450000000000001</v>
+        <v>-9.4459999999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>51.314999999999998</v>
+        <v>3.8740000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>29.309000000000001</v>
+        <v>5.6239999999999997</v>
       </c>
       <c r="D4">
-        <v>391.55500000000001</v>
+        <v>51.395000000000003</v>
       </c>
       <c r="E4">
-        <v>328.04700000000003</v>
+        <v>39.301000000000002</v>
       </c>
       <c r="F4">
-        <v>209.011</v>
+        <v>28.695</v>
       </c>
       <c r="G4">
-        <v>1020.0839999999999</v>
+        <v>108.214</v>
       </c>
       <c r="H4">
-        <v>1930.615</v>
+        <v>151.81100000000001</v>
       </c>
       <c r="I4">
-        <v>88.075000000000003</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>64.906000000000006</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.1379999999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>225.14400000000001</v>
+        <v>40.85</v>
       </c>
       <c r="O4">
-        <v>312.48500000000001</v>
+        <v>112.20699999999999</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>72.959999999999994</v>
       </c>
       <c r="Q4">
-        <v>-14.606999999999999</v>
+        <v>-0.91300000000000003</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1618.13</v>
+        <v>39.603999999999999</v>
       </c>
       <c r="U4">
-        <v>235.62200000000001</v>
+        <v>8.1010000000000009</v>
       </c>
       <c r="V4">
-        <v>19.405000000000001</v>
+        <v>10.404</v>
       </c>
       <c r="W4">
-        <v>-9.5969999999999995</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-18.643999999999998</v>
+        <v>-9.7430000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>29.309000000000001</v>
+        <v>5.6239999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>64.718999999999994</v>
+        <v>6.173</v>
       </c>
       <c r="D5">
-        <v>371.327</v>
+        <v>47.499000000000002</v>
       </c>
       <c r="E5">
-        <v>320.411</v>
+        <v>41.165999999999997</v>
       </c>
       <c r="F5">
-        <v>202.797</v>
+        <v>25.962</v>
       </c>
       <c r="G5">
-        <v>1180.9059999999999</v>
+        <v>118.093</v>
       </c>
       <c r="H5">
-        <v>2102.2979999999998</v>
+        <v>161.99600000000001</v>
       </c>
       <c r="I5">
-        <v>82.233999999999995</v>
+        <v>10.993</v>
       </c>
       <c r="J5">
-        <v>247.74700000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>65.834000000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>218.36500000000001</v>
+        <v>103.804</v>
       </c>
       <c r="O5">
-        <v>554.57100000000003</v>
+        <v>112.752</v>
       </c>
       <c r="P5">
-        <v>247.74700000000001</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="Q5">
-        <v>138.87700000000001</v>
+        <v>4.9820000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1547.7270000000001</v>
+        <v>49.244</v>
       </c>
       <c r="U5">
-        <v>374.49900000000002</v>
+        <v>13.083</v>
       </c>
       <c r="V5">
-        <v>45.904000000000003</v>
+        <v>8.74</v>
       </c>
       <c r="W5">
-        <v>-9.5180000000000007</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>140.26300000000001</v>
+        <v>-3.2309999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>64.718999999999994</v>
+        <v>6.173</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>76.131</v>
+        <v>10.263</v>
       </c>
       <c r="D6">
-        <v>405.21199999999999</v>
+        <v>65.007000000000005</v>
       </c>
       <c r="E6">
-        <v>329.58100000000002</v>
+        <v>57.965000000000003</v>
       </c>
       <c r="F6">
-        <v>224.78399999999999</v>
+        <v>34.884</v>
       </c>
       <c r="G6">
-        <v>1236.08</v>
+        <v>140.42099999999999</v>
       </c>
       <c r="H6">
-        <v>2149.114</v>
+        <v>185.03800000000001</v>
       </c>
       <c r="I6">
-        <v>84.19</v>
+        <v>18.428000000000001</v>
       </c>
       <c r="J6">
-        <v>247.86099999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.37</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,120 +1224,120 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>235.74100000000001</v>
+        <v>70.980999999999995</v>
       </c>
       <c r="O6">
-        <v>570.08500000000004</v>
+        <v>80.19</v>
       </c>
       <c r="P6">
-        <v>247.86099999999999</v>
+        <v>23.954000000000001</v>
       </c>
       <c r="Q6">
-        <v>66.346999999999994</v>
+        <v>2.431</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3084</v>
+        <v>798</v>
       </c>
       <c r="T6">
-        <v>1579.029</v>
+        <v>104.848</v>
       </c>
       <c r="U6">
-        <v>440.846</v>
+        <v>15.513999999999999</v>
       </c>
       <c r="V6">
-        <v>116.196</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="W6">
-        <v>-9.3510000000000009</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-38.429000000000002</v>
+        <v>2.1259999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.9910000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>76.131</v>
+        <v>10.263</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>48.139000000000003</v>
+        <v>8.6679999999999993</v>
       </c>
       <c r="D7">
-        <v>348.452</v>
+        <v>58.097999999999999</v>
       </c>
       <c r="E7">
-        <v>298.798</v>
+        <v>50.893999999999998</v>
       </c>
       <c r="F7">
-        <v>182.727</v>
+        <v>31.298999999999999</v>
       </c>
       <c r="G7">
-        <v>1243.3240000000001</v>
+        <v>132.97200000000001</v>
       </c>
       <c r="H7">
-        <v>2166.2130000000002</v>
+        <v>180.10300000000001</v>
       </c>
       <c r="I7">
-        <v>77.025999999999996</v>
+        <v>21.995000000000001</v>
       </c>
       <c r="J7">
-        <v>247.976</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-20.087</v>
       </c>
       <c r="N7">
-        <v>207.626</v>
+        <v>55.713999999999999</v>
       </c>
       <c r="O7">
-        <v>551.30600000000004</v>
+        <v>64.674000000000007</v>
       </c>
       <c r="P7">
-        <v>247.976</v>
+        <v>4.1449999999999996</v>
       </c>
       <c r="Q7">
-        <v>7.32</v>
+        <v>-7.2430000000000003</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1614.9069999999999</v>
+        <v>115.429</v>
       </c>
       <c r="U7">
-        <v>448.166</v>
+        <v>8.2710000000000008</v>
       </c>
       <c r="V7">
-        <v>48.994999999999997</v>
+        <v>13.69</v>
       </c>
       <c r="W7">
-        <v>-10.784000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-35.003</v>
+        <v>-17.986999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>48.139000000000003</v>
+        <v>8.6679999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>41.093000000000004</v>
+        <v>9.5570000000000004</v>
       </c>
       <c r="D8">
-        <v>338.291</v>
+        <v>63.594999999999999</v>
       </c>
       <c r="E8">
-        <v>268.55</v>
+        <v>55.485999999999997</v>
       </c>
       <c r="F8">
-        <v>170.029</v>
+        <v>32.817999999999998</v>
       </c>
       <c r="G8">
-        <v>1200.9290000000001</v>
+        <v>139.95599999999999</v>
       </c>
       <c r="H8">
-        <v>2114.806</v>
+        <v>188.30099999999999</v>
       </c>
       <c r="I8">
-        <v>79.611000000000004</v>
+        <v>14.525</v>
       </c>
       <c r="J8">
-        <v>248.09</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>208.42699999999999</v>
+        <v>52.231000000000002</v>
       </c>
       <c r="O8">
-        <v>550.03099999999995</v>
+        <v>59.933</v>
       </c>
       <c r="P8">
-        <v>248.09</v>
+        <v>3.8109999999999999</v>
       </c>
       <c r="Q8">
-        <v>-18.395</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1564.7750000000001</v>
+        <v>128.36799999999999</v>
       </c>
       <c r="U8">
-        <v>429.77100000000002</v>
+        <v>11.006</v>
       </c>
       <c r="V8">
-        <v>77.236000000000004</v>
+        <v>1.94</v>
       </c>
       <c r="W8">
-        <v>-10.701000000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-70.614999999999995</v>
+        <v>2.371</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>41.093000000000004</v>
+        <v>9.5570000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>55.905000000000001</v>
+        <v>10.648999999999999</v>
       </c>
       <c r="D9">
-        <v>332.23</v>
+        <v>64.454999999999998</v>
       </c>
       <c r="E9">
-        <v>283.66899999999998</v>
+        <v>52.613</v>
       </c>
       <c r="F9">
-        <v>173.35300000000001</v>
+        <v>33.823</v>
       </c>
       <c r="G9">
-        <v>1226.182</v>
+        <v>153.78299999999999</v>
       </c>
       <c r="H9">
-        <v>2146.0140000000001</v>
+        <v>201.387</v>
       </c>
       <c r="I9">
-        <v>77.692999999999998</v>
+        <v>18.928999999999998</v>
       </c>
       <c r="J9">
-        <v>248.20500000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>201.33699999999999</v>
+        <v>54.502000000000002</v>
       </c>
       <c r="O9">
-        <v>543.59100000000001</v>
+        <v>60.933999999999997</v>
       </c>
       <c r="P9">
-        <v>248.20500000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q9">
-        <v>-5.282</v>
+        <v>16.713999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1602.423</v>
+        <v>140.453</v>
       </c>
       <c r="U9">
-        <v>424.48899999999998</v>
+        <v>27.72</v>
       </c>
       <c r="V9">
-        <v>46.44</v>
+        <v>23</v>
       </c>
       <c r="W9">
-        <v>-10.535</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-47.203000000000003</v>
+        <v>-5.5780000000000003</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>55.905000000000001</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>77.260999999999996</v>
+        <v>12.685</v>
       </c>
       <c r="D10">
-        <v>386.38499999999999</v>
+        <v>74.933000000000007</v>
       </c>
       <c r="E10">
-        <v>335.16300000000001</v>
+        <v>55.798000000000002</v>
       </c>
       <c r="F10">
-        <v>209.07599999999999</v>
+        <v>39.081000000000003</v>
       </c>
       <c r="G10">
-        <v>1165.2460000000001</v>
+        <v>174.10499999999999</v>
       </c>
       <c r="H10">
-        <v>2190.6550000000002</v>
+        <v>233.822</v>
       </c>
       <c r="I10">
-        <v>94.156000000000006</v>
+        <v>16.465</v>
       </c>
       <c r="J10">
-        <v>248.31899999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>241.56700000000001</v>
+        <v>52.625999999999998</v>
       </c>
       <c r="O10">
-        <v>590.75400000000002</v>
+        <v>61.494999999999997</v>
       </c>
       <c r="P10">
-        <v>248.31899999999999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-102.75</v>
+        <v>18.885999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2962</v>
+        <v>838</v>
       </c>
       <c r="T10">
-        <v>1599.9010000000001</v>
+        <v>172.327</v>
       </c>
       <c r="U10">
-        <v>321.73899999999998</v>
+        <v>46.606000000000002</v>
       </c>
       <c r="V10">
-        <v>112.874</v>
+        <v>16.39</v>
       </c>
       <c r="W10">
-        <v>-10.43</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-91.507999999999996</v>
+        <v>3.1659999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-2E-3</v>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="AA10">
-        <v>77.260999999999996</v>
+        <v>12.685</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>51.636000000000003</v>
+        <v>9.15</v>
       </c>
       <c r="D11">
-        <v>348.58300000000003</v>
+        <v>69.171000000000006</v>
       </c>
       <c r="E11">
-        <v>306.08100000000002</v>
+        <v>57.747999999999998</v>
       </c>
       <c r="F11">
-        <v>183.98699999999999</v>
+        <v>36.042999999999999</v>
       </c>
       <c r="G11">
-        <v>1073.4880000000001</v>
+        <v>183.108</v>
       </c>
       <c r="H11">
-        <v>2078.375</v>
+        <v>243.86600000000001</v>
       </c>
       <c r="I11">
-        <v>84.04</v>
+        <v>18.893000000000001</v>
       </c>
       <c r="J11">
-        <v>248.434</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>215.00899999999999</v>
+        <v>55.567999999999998</v>
       </c>
       <c r="O11">
-        <v>553.74400000000003</v>
+        <v>64.953999999999994</v>
       </c>
       <c r="P11">
-        <v>248.434</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-75.731999999999999</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1524.6310000000001</v>
+        <v>178.91200000000001</v>
       </c>
       <c r="U11">
-        <v>246.00700000000001</v>
+        <v>48.087000000000003</v>
       </c>
       <c r="V11">
-        <v>61.959000000000003</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="W11">
-        <v>-13.106</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-120.07599999999999</v>
+        <v>-3.0449999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>51.636000000000003</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>50.158000000000001</v>
+        <v>9.7149999999999999</v>
       </c>
       <c r="D12">
-        <v>389.32900000000001</v>
+        <v>75.162000000000006</v>
       </c>
       <c r="E12">
-        <v>278.26499999999999</v>
+        <v>65.856999999999999</v>
       </c>
       <c r="F12">
-        <v>190.041</v>
+        <v>39.121000000000002</v>
       </c>
       <c r="G12">
-        <v>1268.8520000000001</v>
+        <v>352.72399999999999</v>
       </c>
       <c r="H12">
-        <v>2286.5160000000001</v>
+        <v>413.221</v>
       </c>
       <c r="I12">
-        <v>89.796999999999997</v>
+        <v>18.817</v>
       </c>
       <c r="J12">
-        <v>379.79899999999998</v>
+        <v>203.965</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>264.85700000000003</v>
+        <v>56.012</v>
       </c>
       <c r="O12">
-        <v>729.428</v>
+        <v>269.95100000000002</v>
       </c>
       <c r="P12">
-        <v>394.79899999999998</v>
+        <v>203.965</v>
       </c>
       <c r="Q12">
-        <v>246.42599999999999</v>
+        <v>156.12</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1557.088</v>
+        <v>143.27000000000001</v>
       </c>
       <c r="U12">
-        <v>492.43299999999999</v>
+        <v>204.20699999999999</v>
       </c>
       <c r="V12">
-        <v>135.304</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="W12">
-        <v>-12.803000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>126.97499999999999</v>
+        <v>152.97</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>50.158000000000001</v>
+        <v>9.7149999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>46.485999999999997</v>
+        <v>10.865</v>
       </c>
       <c r="D13">
-        <v>358.14100000000002</v>
+        <v>70.231999999999999</v>
       </c>
       <c r="E13">
-        <v>281.61099999999999</v>
+        <v>64.891999999999996</v>
       </c>
       <c r="F13">
-        <v>172.89</v>
+        <v>38.991</v>
       </c>
       <c r="G13">
-        <v>1279.5029999999999</v>
+        <v>363.45499999999998</v>
       </c>
       <c r="H13">
-        <v>2325.8760000000002</v>
+        <v>424.50900000000001</v>
       </c>
       <c r="I13">
-        <v>93.861000000000004</v>
+        <v>23.699000000000002</v>
       </c>
       <c r="J13">
-        <v>376.16300000000001</v>
+        <v>204.15199999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>251.81299999999999</v>
+        <v>65.724999999999994</v>
       </c>
       <c r="O13">
-        <v>719.36500000000001</v>
+        <v>280.52999999999997</v>
       </c>
       <c r="P13">
-        <v>392.16300000000001</v>
+        <v>204.15199999999999</v>
       </c>
       <c r="Q13">
-        <v>-0.23400000000000001</v>
+        <v>-1.29</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1606.511</v>
+        <v>143.97900000000001</v>
       </c>
       <c r="U13">
-        <v>492.19900000000001</v>
+        <v>202.917</v>
       </c>
       <c r="V13">
-        <v>52.527999999999999</v>
+        <v>12.007</v>
       </c>
       <c r="W13">
-        <v>-12.786</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-30.535</v>
+        <v>-12.775</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-0.48499999999999999</v>
       </c>
       <c r="AA13">
-        <v>46.485999999999997</v>
+        <v>10.865</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>28.734999999999999</v>
+        <v>14.962999999999999</v>
       </c>
       <c r="D14">
-        <v>400.31900000000002</v>
+        <v>97.414000000000001</v>
       </c>
       <c r="E14">
-        <v>286.57299999999998</v>
+        <v>79.331999999999994</v>
       </c>
       <c r="F14">
-        <v>191.78</v>
+        <v>51.37</v>
       </c>
       <c r="G14">
-        <v>1309.731</v>
+        <v>382.113</v>
       </c>
       <c r="H14">
-        <v>2343.3589999999999</v>
+        <v>450.423</v>
       </c>
       <c r="I14">
-        <v>85.73</v>
+        <v>26.427</v>
       </c>
       <c r="J14">
-        <v>372.52800000000002</v>
+        <v>204.369</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>276.51499999999999</v>
+        <v>70.337000000000003</v>
       </c>
       <c r="O14">
-        <v>729.97900000000004</v>
+        <v>285.58100000000002</v>
       </c>
       <c r="P14">
-        <v>387.52800000000002</v>
+        <v>204.369</v>
       </c>
       <c r="Q14">
-        <v>50.277000000000001</v>
+        <v>-4.9240000000000004</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2839</v>
+        <v>885</v>
       </c>
       <c r="T14">
-        <v>1613.38</v>
+        <v>164.84200000000001</v>
       </c>
       <c r="U14">
-        <v>542.476</v>
+        <v>197.99299999999999</v>
       </c>
       <c r="V14">
-        <v>105.17400000000001</v>
+        <v>4.968</v>
       </c>
       <c r="W14">
-        <v>-12.709</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-42.476999999999997</v>
+        <v>-0.30599999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-0.56599999999999995</v>
       </c>
       <c r="AA14">
-        <v>28.734999999999999</v>
+        <v>14.962999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>29.893999999999998</v>
+        <v>12.683</v>
       </c>
       <c r="D15">
-        <v>351.54199999999997</v>
+        <v>108.861</v>
       </c>
       <c r="E15">
-        <v>270.16500000000002</v>
+        <v>84.584000000000003</v>
       </c>
       <c r="F15">
-        <v>169.12200000000001</v>
+        <v>54.192999999999998</v>
       </c>
       <c r="G15">
-        <v>1330.2</v>
+        <v>259.57299999999998</v>
       </c>
       <c r="H15">
-        <v>2368.8879999999999</v>
+        <v>503.64299999999997</v>
       </c>
       <c r="I15">
-        <v>91.965000000000003</v>
+        <v>30.032</v>
       </c>
       <c r="J15">
-        <v>368.892</v>
+        <v>206.99</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-3.75</v>
+        <v>-0.2</v>
       </c>
       <c r="N15">
-        <v>271.161</v>
+        <v>77.697999999999993</v>
       </c>
       <c r="O15">
-        <v>724.85799999999995</v>
+        <v>295.70400000000001</v>
       </c>
       <c r="P15">
-        <v>384.892</v>
+        <v>208.346</v>
       </c>
       <c r="Q15">
-        <v>41.619</v>
+        <v>-142.00899999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1644.03</v>
+        <v>207.93899999999999</v>
       </c>
       <c r="U15">
-        <v>584.09500000000003</v>
+        <v>55.984000000000002</v>
       </c>
       <c r="V15">
-        <v>59.825000000000003</v>
+        <v>19.475999999999999</v>
       </c>
       <c r="W15">
-        <v>-14.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-7.7750000000000004</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="AA15">
-        <v>29.893999999999998</v>
+        <v>12.683</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>44.758000000000003</v>
+        <v>17.925999999999998</v>
       </c>
       <c r="D16">
-        <v>369.38</v>
+        <v>119.295</v>
       </c>
       <c r="E16">
-        <v>270.08600000000001</v>
+        <v>89.055999999999997</v>
       </c>
       <c r="F16">
-        <v>182.71799999999999</v>
+        <v>61.551000000000002</v>
       </c>
       <c r="G16">
-        <v>1362.54</v>
+        <v>272.762</v>
       </c>
       <c r="H16">
-        <v>2402.165</v>
+        <v>519.50199999999995</v>
       </c>
       <c r="I16">
-        <v>99.995999999999995</v>
+        <v>29.082999999999998</v>
       </c>
       <c r="J16">
-        <v>365.25700000000001</v>
+        <v>204.95</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>299.76600000000002</v>
+        <v>73.162000000000006</v>
       </c>
       <c r="O16">
-        <v>750.42399999999998</v>
+        <v>289.44400000000002</v>
       </c>
       <c r="P16">
-        <v>381.25700000000001</v>
+        <v>205.078</v>
       </c>
       <c r="Q16">
-        <v>17.978000000000002</v>
+        <v>11.019</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1651.741</v>
+        <v>230.05799999999999</v>
       </c>
       <c r="U16">
-        <v>602.07299999999998</v>
+        <v>67.003</v>
       </c>
       <c r="V16">
-        <v>70.587999999999994</v>
+        <v>19.504000000000001</v>
       </c>
       <c r="W16">
-        <v>-14.16</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-35.459000000000003</v>
+        <v>-3.1240000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1.296</v>
       </c>
       <c r="AA16">
-        <v>44.758000000000003</v>
+        <v>17.925999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>52.856999999999999</v>
+        <v>16.824000000000002</v>
       </c>
       <c r="D17">
-        <v>375.36599999999999</v>
+        <v>110.76900000000001</v>
       </c>
       <c r="E17">
-        <v>298.55900000000003</v>
+        <v>92.569000000000003</v>
       </c>
       <c r="F17">
-        <v>184.386</v>
+        <v>58.98</v>
       </c>
       <c r="G17">
-        <v>1335.175</v>
+        <v>317.173</v>
       </c>
       <c r="H17">
-        <v>2354.2919999999999</v>
+        <v>563.62199999999996</v>
       </c>
       <c r="I17">
-        <v>90.5</v>
+        <v>33.930999999999997</v>
       </c>
       <c r="J17">
-        <v>361.62200000000001</v>
+        <v>205.142</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>287.82600000000002</v>
+        <v>83.100999999999999</v>
       </c>
       <c r="O17">
-        <v>732.55799999999999</v>
+        <v>300.00099999999998</v>
       </c>
       <c r="P17">
-        <v>377.52199999999999</v>
+        <v>205.27</v>
       </c>
       <c r="Q17">
-        <v>-36.700000000000003</v>
+        <v>27.891999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1621.7339999999999</v>
+        <v>263.62099999999998</v>
       </c>
       <c r="U17">
-        <v>565.37300000000005</v>
+        <v>94.894999999999996</v>
       </c>
       <c r="V17">
-        <v>32.987000000000002</v>
+        <v>21.54</v>
       </c>
       <c r="W17">
-        <v>-14.164999999999999</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-45.213000000000001</v>
+        <v>6.0910000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1.099</v>
       </c>
       <c r="AA17">
-        <v>52.856999999999999</v>
+        <v>16.824000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>72.751999999999995</v>
+        <v>24.062000000000001</v>
       </c>
       <c r="D18">
-        <v>434.36599999999999</v>
+        <v>143.726</v>
       </c>
       <c r="E18">
-        <v>354.65800000000002</v>
+        <v>116.928</v>
       </c>
       <c r="F18">
-        <v>214.738</v>
+        <v>75.734999999999999</v>
       </c>
       <c r="G18">
-        <v>1300.328</v>
+        <v>367.41800000000001</v>
       </c>
       <c r="H18">
-        <v>2349.3110000000001</v>
+        <v>630.43200000000002</v>
       </c>
       <c r="I18">
-        <v>98.173000000000002</v>
+        <v>32.320999999999998</v>
       </c>
       <c r="J18">
-        <v>357.98599999999999</v>
+        <v>205.33500000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>309.55700000000002</v>
+        <v>89.087000000000003</v>
       </c>
       <c r="O18">
-        <v>739.53800000000001</v>
+        <v>317.25900000000001</v>
       </c>
       <c r="P18">
-        <v>372.98599999999999</v>
+        <v>205.44</v>
       </c>
       <c r="Q18">
-        <v>-33.999000000000002</v>
+        <v>25.797000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2741</v>
+        <v>1204</v>
       </c>
       <c r="T18">
-        <v>1609.7729999999999</v>
+        <v>313.173</v>
       </c>
       <c r="U18">
-        <v>531.37400000000002</v>
+        <v>120.69199999999999</v>
       </c>
       <c r="V18">
-        <v>62.844000000000001</v>
+        <v>14.53</v>
       </c>
       <c r="W18">
-        <v>-14.103</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-63.58</v>
+        <v>6.1360000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AA18">
-        <v>72.751999999999995</v>
+        <v>24.062000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>47.91</v>
+        <v>14.707000000000001</v>
       </c>
       <c r="D19">
-        <v>344.517</v>
+        <v>108.31699999999999</v>
       </c>
       <c r="E19">
-        <v>311.78699999999998</v>
+        <v>106.997</v>
       </c>
       <c r="F19">
-        <v>175.89699999999999</v>
+        <v>58.585999999999999</v>
       </c>
       <c r="G19">
-        <v>1321.4259999999999</v>
+        <v>371.97</v>
       </c>
       <c r="H19">
-        <v>2312.3580000000002</v>
+        <v>644.26700000000005</v>
       </c>
       <c r="I19">
-        <v>106.12</v>
+        <v>32.268000000000001</v>
       </c>
       <c r="J19">
-        <v>354.351</v>
+        <v>205.52799999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.75</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="N19">
-        <v>294.54199999999997</v>
+        <v>85.123999999999995</v>
       </c>
       <c r="O19">
-        <v>726.54</v>
+        <v>307.15499999999997</v>
       </c>
       <c r="P19">
-        <v>370.15100000000001</v>
+        <v>205.63300000000001</v>
       </c>
       <c r="Q19">
-        <v>16.405999999999999</v>
+        <v>4.9210000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1585.818</v>
+        <v>337.11200000000002</v>
       </c>
       <c r="U19">
-        <v>547.78</v>
+        <v>125.613</v>
       </c>
       <c r="V19">
-        <v>74.927000000000007</v>
+        <v>12.071</v>
       </c>
       <c r="W19">
-        <v>-15.377000000000001</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-13.941000000000001</v>
+        <v>11.891</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="AA19">
-        <v>47.91</v>
+        <v>14.707000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>50.5</v>
+        <v>24.571999999999999</v>
       </c>
       <c r="D20">
-        <v>392.97500000000002</v>
+        <v>130.96600000000001</v>
       </c>
       <c r="E20">
-        <v>327.65300000000002</v>
+        <v>109.092</v>
       </c>
       <c r="F20">
-        <v>189.61500000000001</v>
+        <v>71.326999999999998</v>
       </c>
       <c r="G20">
-        <v>1372.923</v>
+        <v>348.36599999999999</v>
       </c>
       <c r="H20">
-        <v>2379.7159999999999</v>
+        <v>626.197</v>
       </c>
       <c r="I20">
-        <v>121.605</v>
+        <v>32.249000000000002</v>
       </c>
       <c r="J20">
-        <v>350.71499999999997</v>
+        <v>205.72</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>310.30700000000002</v>
+        <v>75.963999999999999</v>
       </c>
       <c r="O20">
-        <v>741.24099999999999</v>
+        <v>298.35199999999998</v>
       </c>
       <c r="P20">
-        <v>366.41500000000002</v>
+        <v>205.82599999999999</v>
       </c>
       <c r="Q20">
-        <v>12.41</v>
+        <v>-17.631</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1638.4749999999999</v>
+        <v>327.84500000000003</v>
       </c>
       <c r="U20">
-        <v>560.19000000000005</v>
+        <v>107.982</v>
       </c>
       <c r="V20">
-        <v>48.932000000000002</v>
+        <v>19.117000000000001</v>
       </c>
       <c r="W20">
-        <v>-15.397</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-32.090000000000003</v>
+        <v>-21.193000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AA20">
-        <v>50.5</v>
+        <v>24.571999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>73.072000000000003</v>
+        <v>17.344000000000001</v>
       </c>
       <c r="D21">
-        <v>381.928</v>
+        <v>113.03100000000001</v>
       </c>
       <c r="E21">
-        <v>304.27</v>
+        <v>111.47</v>
       </c>
       <c r="F21">
-        <v>180.739</v>
+        <v>60.12</v>
       </c>
       <c r="G21">
-        <v>1346.2</v>
+        <v>381.84399999999999</v>
       </c>
       <c r="H21">
-        <v>2354.8029999999999</v>
+        <v>668.15099999999995</v>
       </c>
       <c r="I21">
-        <v>125.739</v>
+        <v>33.569000000000003</v>
       </c>
       <c r="J21">
-        <v>347.08</v>
+        <v>205.93700000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>313.88299999999998</v>
+        <v>85.834999999999994</v>
       </c>
       <c r="O21">
-        <v>729.94500000000005</v>
+        <v>308.64100000000002</v>
       </c>
       <c r="P21">
-        <v>362.68</v>
+        <v>206.018</v>
       </c>
       <c r="Q21">
-        <v>-34.814</v>
+        <v>25.902000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1624.8579999999999</v>
+        <v>359.51</v>
       </c>
       <c r="U21">
-        <v>525.37599999999998</v>
+        <v>133.88399999999999</v>
       </c>
       <c r="V21">
-        <v>73.62</v>
+        <v>26.018999999999998</v>
       </c>
       <c r="W21">
-        <v>-15.419</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-79.399000000000001</v>
+        <v>8.5530000000000008</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1.4990000000000001</v>
       </c>
       <c r="AA21">
-        <v>73.072000000000003</v>
+        <v>17.344000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>70.203999999999994</v>
+        <v>34.142000000000003</v>
       </c>
       <c r="D22">
-        <v>437.64699999999999</v>
+        <v>156.24700000000001</v>
       </c>
       <c r="E22">
-        <v>326.09800000000001</v>
+        <v>142.78200000000001</v>
       </c>
       <c r="F22">
-        <v>207.31</v>
+        <v>86.661000000000001</v>
       </c>
       <c r="G22">
-        <v>1287.5139999999999</v>
+        <v>408.99700000000001</v>
       </c>
       <c r="H22">
-        <v>2406.4</v>
+        <v>689.423</v>
       </c>
       <c r="I22">
-        <v>139.54</v>
+        <v>34.476999999999997</v>
       </c>
       <c r="J22">
-        <v>93.75</v>
+        <v>206.155</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>585.34500000000003</v>
+        <v>92.662000000000006</v>
       </c>
       <c r="O22">
-        <v>756.88499999999999</v>
+        <v>332.44200000000001</v>
       </c>
       <c r="P22">
-        <v>358.44400000000002</v>
+        <v>206.21100000000001</v>
       </c>
       <c r="Q22">
-        <v>-52.591000000000001</v>
+        <v>-26.827000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3003</v>
+        <v>1320</v>
       </c>
       <c r="T22">
-        <v>1649.5150000000001</v>
+        <v>356.98099999999999</v>
       </c>
       <c r="U22">
-        <v>472.78500000000003</v>
+        <v>107.057</v>
       </c>
       <c r="V22">
-        <v>78.334999999999994</v>
+        <v>15.932</v>
       </c>
       <c r="W22">
-        <v>-15.206</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-41.107999999999997</v>
+        <v>-20.510999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>70.203999999999994</v>
+        <v>34.142000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1.125</v>
+        <v>12.659000000000001</v>
       </c>
       <c r="D23">
-        <v>379.47199999999998</v>
+        <v>117.339</v>
       </c>
       <c r="E23">
-        <v>298.52999999999997</v>
+        <v>119.083</v>
       </c>
       <c r="F23">
-        <v>177.69</v>
+        <v>60.847999999999999</v>
       </c>
       <c r="G23">
-        <v>1290.23</v>
+        <v>412.43700000000001</v>
       </c>
       <c r="H23">
-        <v>2413.2089999999998</v>
+        <v>708.62699999999995</v>
       </c>
       <c r="I23">
-        <v>106.39400000000001</v>
+        <v>37.204000000000001</v>
       </c>
       <c r="J23">
-        <v>90.2</v>
+        <v>206.37200000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-3.75</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="N23">
-        <v>535.149</v>
+        <v>89.873999999999995</v>
       </c>
       <c r="O23">
-        <v>745.18</v>
+        <v>325.61799999999999</v>
       </c>
       <c r="P23">
-        <v>355.40899999999999</v>
+        <v>206.404</v>
       </c>
       <c r="Q23">
-        <v>37.828000000000003</v>
+        <v>20.245000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1668.029</v>
+        <v>383.00900000000001</v>
       </c>
       <c r="U23">
-        <v>510.613</v>
+        <v>127.30200000000001</v>
       </c>
       <c r="V23">
-        <v>45.945999999999998</v>
+        <v>34.101999999999997</v>
       </c>
       <c r="W23">
-        <v>-16.507000000000001</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-16.292999999999999</v>
+        <v>-5.1280000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0.115</v>
       </c>
       <c r="AA23">
-        <v>1.125</v>
+        <v>12.659000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>45.368000000000002</v>
+        <v>21.411000000000001</v>
       </c>
       <c r="D24">
-        <v>402.72899999999998</v>
+        <v>138.55000000000001</v>
       </c>
       <c r="E24">
-        <v>279.32299999999998</v>
+        <v>125.89400000000001</v>
       </c>
       <c r="F24">
-        <v>183.322</v>
+        <v>73.911000000000001</v>
       </c>
       <c r="G24">
-        <v>1657.8219999999999</v>
+        <v>446.80200000000002</v>
       </c>
       <c r="H24">
-        <v>2794.951</v>
+        <v>749.65599999999995</v>
       </c>
       <c r="I24">
-        <v>101.17</v>
+        <v>35.558999999999997</v>
       </c>
       <c r="J24">
-        <v>505.44</v>
+        <v>206.589</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>522.35599999999999</v>
+        <v>93.454999999999998</v>
       </c>
       <c r="O24">
-        <v>1147.4069999999999</v>
+        <v>329.89499999999998</v>
       </c>
       <c r="P24">
-        <v>770.86400000000003</v>
+        <v>206.596</v>
       </c>
       <c r="Q24">
-        <v>392.56599999999997</v>
+        <v>16.018999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1647.5440000000001</v>
+        <v>419.76100000000002</v>
       </c>
       <c r="U24">
-        <v>903.17899999999997</v>
+        <v>143.321</v>
       </c>
       <c r="V24">
-        <v>87.87</v>
+        <v>19.454999999999998</v>
       </c>
       <c r="W24">
-        <v>-16.582999999999998</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>367.65699999999998</v>
+        <v>-0.34300000000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AA24">
-        <v>45.368000000000002</v>
+        <v>21.411000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>58.633000000000003</v>
+        <v>27.07</v>
       </c>
       <c r="D25">
-        <v>405.22800000000001</v>
+        <v>133.21199999999999</v>
       </c>
       <c r="E25">
-        <v>309.60199999999998</v>
+        <v>133.90199999999999</v>
       </c>
       <c r="F25">
-        <v>191.376</v>
+        <v>75.710999999999999</v>
       </c>
       <c r="G25">
-        <v>1456.14</v>
+        <v>435.96</v>
       </c>
       <c r="H25">
-        <v>2587.8939999999998</v>
+        <v>740.37199999999996</v>
       </c>
       <c r="I25">
-        <v>109.663</v>
+        <v>34.692</v>
       </c>
       <c r="J25">
-        <v>501.70600000000002</v>
+        <v>206.80699999999999</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>310.64800000000002</v>
+        <v>161.60499999999999</v>
       </c>
       <c r="O25">
-        <v>934.48800000000006</v>
+        <v>390.93900000000002</v>
       </c>
       <c r="P25">
-        <v>517.00599999999997</v>
+        <v>259.81400000000002</v>
       </c>
       <c r="Q25">
-        <v>-225.49100000000001</v>
+        <v>-30.951000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1653.4059999999999</v>
+        <v>349.43299999999999</v>
       </c>
       <c r="U25">
-        <v>677.68799999999999</v>
+        <v>112.37</v>
       </c>
       <c r="V25">
-        <v>88.790999999999997</v>
+        <v>21.173999999999999</v>
       </c>
       <c r="W25">
-        <v>-16.474</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-308.012</v>
+        <v>-46.610999999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.97599999999999998</v>
       </c>
       <c r="AA25">
-        <v>58.633000000000003</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>61.5</v>
+        <v>39.756</v>
       </c>
       <c r="D26">
-        <v>474.738</v>
+        <v>185.899</v>
       </c>
       <c r="E26">
-        <v>352.02</v>
+        <v>167.50200000000001</v>
       </c>
       <c r="F26">
-        <v>214.733</v>
+        <v>104.443</v>
       </c>
       <c r="G26">
-        <v>1164.6569999999999</v>
+        <v>486.47</v>
       </c>
       <c r="H26">
-        <v>2619.7060000000001</v>
+        <v>798.14800000000002</v>
       </c>
       <c r="I26">
-        <v>114.22499999999999</v>
+        <v>40.607999999999997</v>
       </c>
       <c r="J26">
-        <v>501.92099999999999</v>
+        <v>207.024</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>361.71199999999999</v>
+        <v>170.37299999999999</v>
       </c>
       <c r="O26">
-        <v>941.38</v>
+        <v>399.39600000000002</v>
       </c>
       <c r="P26">
-        <v>516.92100000000005</v>
+        <v>252.53100000000001</v>
       </c>
       <c r="Q26">
-        <v>-316.339</v>
+        <v>26.253</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3436</v>
+        <v>1419</v>
       </c>
       <c r="T26">
-        <v>1678.326</v>
+        <v>398.75200000000001</v>
       </c>
       <c r="U26">
-        <v>361.34899999999999</v>
+        <v>138.62299999999999</v>
       </c>
       <c r="V26">
-        <v>97.144000000000005</v>
+        <v>40.423999999999999</v>
       </c>
       <c r="W26">
-        <v>-16.356000000000002</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-12.215999999999999</v>
+        <v>-2.9769999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.877</v>
       </c>
       <c r="AA26">
-        <v>61.5</v>
+        <v>39.756</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>42.570999999999998</v>
+        <v>26.263999999999999</v>
       </c>
       <c r="D27">
-        <v>406.81400000000002</v>
+        <v>161.363</v>
       </c>
       <c r="E27">
-        <v>308.74</v>
+        <v>153.727</v>
       </c>
       <c r="F27">
-        <v>191.321</v>
+        <v>89.822000000000003</v>
       </c>
       <c r="G27">
-        <v>1176.1600000000001</v>
+        <v>502.19</v>
       </c>
       <c r="H27">
-        <v>2630.395</v>
+        <v>814.63099999999997</v>
       </c>
       <c r="I27">
-        <v>110.01300000000001</v>
+        <v>45.164000000000001</v>
       </c>
       <c r="J27">
-        <v>494.73700000000002</v>
+        <v>207.24100000000001</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-7.5</v>
+        <v>-17.001999999999999</v>
       </c>
       <c r="N27">
-        <v>341.17500000000001</v>
+        <v>145.34700000000001</v>
       </c>
       <c r="O27">
-        <v>910.82600000000002</v>
+        <v>383.19499999999999</v>
       </c>
       <c r="P27">
-        <v>509.73700000000002</v>
+        <v>235.74799999999999</v>
       </c>
       <c r="Q27">
-        <v>36.087000000000003</v>
+        <v>14.84</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1719.569</v>
+        <v>431.43599999999998</v>
       </c>
       <c r="U27">
-        <v>397.43599999999998</v>
+        <v>153.46299999999999</v>
       </c>
       <c r="V27">
-        <v>75.126999999999995</v>
+        <v>34.143000000000001</v>
       </c>
       <c r="W27">
-        <v>-20.456</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-28.797999999999998</v>
+        <v>-9.5380000000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>42.570999999999998</v>
+        <v>26.263999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>51.412999999999997</v>
+        <v>29.085000000000001</v>
       </c>
       <c r="D28">
-        <v>434.12400000000002</v>
+        <v>184.29599999999999</v>
       </c>
       <c r="E28">
-        <v>332.00900000000001</v>
+        <v>173.55600000000001</v>
       </c>
       <c r="F28">
-        <v>206.732</v>
+        <v>99.146000000000001</v>
       </c>
       <c r="G28">
-        <v>1224.1030000000001</v>
+        <v>548.42499999999995</v>
       </c>
       <c r="H28">
-        <v>2703.5039999999999</v>
+        <v>871.04</v>
       </c>
       <c r="I28">
-        <v>113.95699999999999</v>
+        <v>47.1</v>
       </c>
       <c r="J28">
-        <v>491.303</v>
+        <v>207.458</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>349.62400000000002</v>
+        <v>141.13999999999999</v>
       </c>
       <c r="O28">
-        <v>922.87300000000005</v>
+        <v>379.46300000000002</v>
       </c>
       <c r="P28">
-        <v>506.303</v>
+        <v>229.465</v>
       </c>
       <c r="Q28">
-        <v>6.1550000000000002</v>
+        <v>-1.839</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1780.6310000000001</v>
+        <v>491.577</v>
       </c>
       <c r="U28">
-        <v>403.59100000000001</v>
+        <v>151.624</v>
       </c>
       <c r="V28">
-        <v>30.126999999999999</v>
+        <v>-4.085</v>
       </c>
       <c r="W28">
-        <v>-20.556999999999999</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-25.456</v>
+        <v>13.577</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>51.412999999999997</v>
+        <v>29.085000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>63.529000000000003</v>
+        <v>34.765000000000001</v>
       </c>
       <c r="D29">
-        <v>464.71199999999999</v>
+        <v>191.10400000000001</v>
       </c>
       <c r="E29">
-        <v>345.54199999999997</v>
+        <v>177.834</v>
       </c>
       <c r="F29">
-        <v>222.89099999999999</v>
+        <v>107.023</v>
       </c>
       <c r="G29">
-        <v>1282.078</v>
+        <v>598.50099999999998</v>
       </c>
       <c r="H29">
-        <v>2766.2750000000001</v>
+        <v>932.197</v>
       </c>
       <c r="I29">
-        <v>127.42</v>
+        <v>53.302</v>
       </c>
       <c r="J29">
-        <v>420.36900000000003</v>
+        <v>207.672</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>367.93799999999999</v>
+        <v>134.95699999999999</v>
       </c>
       <c r="O29">
-        <v>876.75699999999995</v>
+        <v>375.79599999999999</v>
       </c>
       <c r="P29">
-        <v>420.36900000000003</v>
+        <v>207.679</v>
       </c>
       <c r="Q29">
-        <v>33.369999999999997</v>
+        <v>18.318999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1889.518</v>
+        <v>556.40099999999995</v>
       </c>
       <c r="U29">
-        <v>436.96100000000001</v>
+        <v>169.94300000000001</v>
       </c>
       <c r="V29">
-        <v>104.08199999999999</v>
+        <v>31.018000000000001</v>
       </c>
       <c r="W29">
-        <v>-20.763000000000002</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-70.308999999999997</v>
+        <v>-10.808999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="AA29">
-        <v>63.529000000000003</v>
+        <v>34.765000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-50.29</v>
+        <v>46.597000000000001</v>
       </c>
       <c r="D30">
-        <v>494.78399999999999</v>
+        <v>242.63399999999999</v>
       </c>
       <c r="E30">
-        <v>346.68700000000001</v>
+        <v>203.37100000000001</v>
       </c>
       <c r="F30">
-        <v>237.83199999999999</v>
+        <v>137.239</v>
       </c>
       <c r="G30">
-        <v>1387.2190000000001</v>
+        <v>655.50699999999995</v>
       </c>
       <c r="H30">
-        <v>2810.0259999999998</v>
+        <v>1024.316</v>
       </c>
       <c r="I30">
-        <v>106.389</v>
+        <v>53.99</v>
       </c>
       <c r="J30">
-        <v>420.68400000000003</v>
+        <v>207.88900000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>394.93299999999999</v>
+        <v>160.90100000000001</v>
       </c>
       <c r="O30">
-        <v>975.46799999999996</v>
+        <v>401.041</v>
       </c>
       <c r="P30">
-        <v>420.68400000000003</v>
+        <v>226.89599999999999</v>
       </c>
       <c r="Q30">
-        <v>82.129000000000005</v>
+        <v>33.738</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3542</v>
+        <v>1743</v>
       </c>
       <c r="T30">
-        <v>1834.558</v>
+        <v>623.27499999999998</v>
       </c>
       <c r="U30">
-        <v>519.09</v>
+        <v>203.68100000000001</v>
       </c>
       <c r="V30">
-        <v>98.915999999999997</v>
+        <v>55.027000000000001</v>
       </c>
       <c r="W30">
-        <v>-20.829000000000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-8.0489999999999995</v>
+        <v>33.914999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1.0740000000000001</v>
       </c>
       <c r="AA30">
-        <v>-50.29</v>
+        <v>46.597000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>39.195</v>
+        <v>36.521000000000001</v>
       </c>
       <c r="D31">
-        <v>439.61799999999999</v>
+        <v>236.90600000000001</v>
       </c>
       <c r="E31">
-        <v>329.79199999999997</v>
+        <v>208.804</v>
       </c>
       <c r="F31">
-        <v>217.91399999999999</v>
+        <v>130.79499999999999</v>
       </c>
       <c r="G31">
-        <v>1269.2070000000001</v>
+        <v>643.56799999999998</v>
       </c>
       <c r="H31">
-        <v>2704</v>
+        <v>1087.44</v>
       </c>
       <c r="I31">
-        <v>110.65300000000001</v>
+        <v>63.444000000000003</v>
       </c>
       <c r="J31">
-        <v>421</v>
+        <v>208.10599999999999</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.835</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-19.341999999999999</v>
       </c>
       <c r="N31">
-        <v>324.71300000000002</v>
+        <v>171.34200000000001</v>
       </c>
       <c r="O31">
-        <v>917.78200000000004</v>
+        <v>408.22800000000001</v>
       </c>
       <c r="P31">
-        <v>421</v>
+        <v>209.94800000000001</v>
       </c>
       <c r="Q31">
-        <v>-66.951999999999998</v>
+        <v>-44.594000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1786.2180000000001</v>
+        <v>679.21199999999999</v>
       </c>
       <c r="U31">
-        <v>414.53800000000001</v>
+        <v>159.08699999999999</v>
       </c>
       <c r="V31">
-        <v>43.176000000000002</v>
+        <v>55.164999999999999</v>
       </c>
       <c r="W31">
-        <v>-22.231999999999999</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-113.967</v>
+        <v>-28.536999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="AA31">
-        <v>39.195</v>
+        <v>36.521000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>71.563000000000002</v>
+        <v>44.616</v>
       </c>
       <c r="D32">
-        <v>452.70699999999999</v>
+        <v>260.97800000000001</v>
       </c>
       <c r="E32">
-        <v>304.26499999999999</v>
+        <v>230.35900000000001</v>
       </c>
       <c r="F32">
-        <v>232.55099999999999</v>
+        <v>146.614</v>
       </c>
       <c r="G32">
-        <v>1285.8340000000001</v>
+        <v>718.36099999999999</v>
       </c>
       <c r="H32">
-        <v>2705.0749999999998</v>
+        <v>1180.0119999999999</v>
       </c>
       <c r="I32">
-        <v>106.721</v>
+        <v>67.332999999999998</v>
       </c>
       <c r="J32">
-        <v>421.31599999999997</v>
+        <v>208.36099999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>316.08999999999997</v>
+        <v>176.21700000000001</v>
       </c>
       <c r="O32">
-        <v>909.90899999999999</v>
+        <v>414.916</v>
       </c>
       <c r="P32">
-        <v>421.31599999999997</v>
+        <v>209.779</v>
       </c>
       <c r="Q32">
-        <v>55.804000000000002</v>
+        <v>17.914999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1795.1659999999999</v>
+        <v>765.096</v>
       </c>
       <c r="U32">
-        <v>472.642</v>
+        <v>177.00200000000001</v>
       </c>
       <c r="V32">
-        <v>110.16800000000001</v>
+        <v>8.2460000000000004</v>
       </c>
       <c r="W32">
-        <v>-22.097999999999999</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-25.553999999999998</v>
+        <v>32.506999999999998</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-5.069</v>
       </c>
       <c r="AA32">
-        <v>71.563000000000002</v>
+        <v>44.616999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>73.150999999999996</v>
+        <v>54.779000000000003</v>
       </c>
       <c r="D33">
-        <v>434.89800000000002</v>
+        <v>276.74</v>
       </c>
       <c r="E33">
-        <v>291.09399999999999</v>
+        <v>241.65199999999999</v>
       </c>
       <c r="F33">
-        <v>222.07400000000001</v>
+        <v>155.262</v>
       </c>
       <c r="G33">
-        <v>1354.731</v>
+        <v>748.95</v>
       </c>
       <c r="H33">
-        <v>2856.8850000000002</v>
+        <v>1187.875</v>
       </c>
       <c r="I33">
-        <v>95.974999999999994</v>
+        <v>63.286000000000001</v>
       </c>
       <c r="J33">
-        <v>421.63200000000001</v>
+        <v>208.572</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>321.94299999999998</v>
+        <v>181.43799999999999</v>
       </c>
       <c r="O33">
-        <v>915.66200000000003</v>
+        <v>420.07900000000001</v>
       </c>
       <c r="P33">
-        <v>421.63200000000001</v>
+        <v>209.703</v>
       </c>
       <c r="Q33">
-        <v>85.393000000000001</v>
+        <v>29.100999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1941.223</v>
+        <v>767.79600000000005</v>
       </c>
       <c r="U33">
-        <v>557.63499999999999</v>
+        <v>206.10300000000001</v>
       </c>
       <c r="V33">
-        <v>122.499</v>
+        <v>66.364999999999995</v>
       </c>
       <c r="W33">
-        <v>-22.120999999999999</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-17.378</v>
+        <v>-16.372</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1.0009999999999999</v>
       </c>
       <c r="AA33">
-        <v>73.150999999999996</v>
+        <v>54.779000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>98.516000000000005</v>
+        <v>64.983999999999995</v>
       </c>
       <c r="D34">
-        <v>448.46300000000002</v>
+        <v>302.35000000000002</v>
       </c>
       <c r="E34">
-        <v>323.74599999999998</v>
+        <v>239.18299999999999</v>
       </c>
       <c r="F34">
-        <v>231.12799999999999</v>
+        <v>173.48699999999999</v>
       </c>
       <c r="G34">
-        <v>1292.6469999999999</v>
+        <v>812.50199999999995</v>
       </c>
       <c r="H34">
-        <v>2781.2420000000002</v>
+        <v>1241.077</v>
       </c>
       <c r="I34">
-        <v>95.495999999999995</v>
+        <v>47.823</v>
       </c>
       <c r="J34">
-        <v>421.94799999999998</v>
+        <v>182.82499999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>316.01400000000001</v>
+        <v>172.27500000000001</v>
       </c>
       <c r="O34">
-        <v>904.45600000000002</v>
+        <v>396.35199999999998</v>
       </c>
       <c r="P34">
-        <v>421.94799999999998</v>
+        <v>182.82499999999999</v>
       </c>
       <c r="Q34">
-        <v>-81.191000000000003</v>
+        <v>83.338999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3649</v>
+        <v>1943</v>
       </c>
       <c r="T34">
-        <v>1876.7860000000001</v>
+        <v>844.72500000000002</v>
       </c>
       <c r="U34">
-        <v>512.14400000000001</v>
+        <v>289.44200000000001</v>
       </c>
       <c r="V34">
-        <v>98.313999999999993</v>
+        <v>88.54</v>
       </c>
       <c r="W34">
-        <v>-21.672000000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-162.04499999999999</v>
+        <v>15.015000000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="AA34">
-        <v>98.516000000000005</v>
+        <v>64.983999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>61.747999999999998</v>
+        <v>54.271999999999998</v>
       </c>
       <c r="D35">
-        <v>444.73599999999999</v>
+        <v>271.99599999999998</v>
       </c>
       <c r="E35">
-        <v>356.69299999999998</v>
+        <v>234.40199999999999</v>
       </c>
       <c r="F35">
-        <v>233.86099999999999</v>
+        <v>157.715</v>
       </c>
       <c r="G35">
-        <v>1127.4459999999999</v>
+        <v>843.822</v>
       </c>
       <c r="H35">
-        <v>3206.3090000000002</v>
+        <v>1268.798</v>
       </c>
       <c r="I35">
-        <v>131.422</v>
+        <v>59.399000000000001</v>
       </c>
       <c r="J35">
-        <v>656.89099999999996</v>
+        <v>88.158000000000001</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-375</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="N35">
-        <v>459.64800000000002</v>
+        <v>174.65799999999999</v>
       </c>
       <c r="O35">
-        <v>1303.614</v>
+        <v>304.35599999999999</v>
       </c>
       <c r="P35">
-        <v>802.99699999999996</v>
+        <v>88.176000000000002</v>
       </c>
       <c r="Q35">
-        <v>-227.78100000000001</v>
+        <v>37.823</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1902.6949999999999</v>
+        <v>964.44200000000001</v>
       </c>
       <c r="U35">
-        <v>284.363</v>
+        <v>327.26499999999999</v>
       </c>
       <c r="V35">
-        <v>55.511000000000003</v>
+        <v>74.328000000000003</v>
       </c>
       <c r="W35">
-        <v>-23.030999999999999</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>308.31400000000002</v>
+        <v>-16.132000000000001</v>
       </c>
       <c r="Y35">
-        <v>26.751000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>61.747999999999998</v>
+        <v>54.271999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>46.118000000000002</v>
+        <v>55.652999999999999</v>
       </c>
       <c r="D36">
-        <v>481.99799999999999</v>
+        <v>277.97800000000001</v>
       </c>
       <c r="E36">
-        <v>356.99099999999999</v>
+        <v>214.59399999999999</v>
       </c>
       <c r="F36">
-        <v>233.40799999999999</v>
+        <v>161.94800000000001</v>
       </c>
       <c r="G36">
-        <v>1130.722</v>
+        <v>863.61400000000003</v>
       </c>
       <c r="H36">
-        <v>3244.6860000000001</v>
+        <v>1320.84</v>
       </c>
       <c r="I36">
-        <v>132.29400000000001</v>
+        <v>59.136000000000003</v>
       </c>
       <c r="J36">
-        <v>654.85799999999995</v>
+        <v>88.885999999999996</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>457.96899999999999</v>
+        <v>156.80600000000001</v>
       </c>
       <c r="O36">
-        <v>1332.7950000000001</v>
+        <v>291.72000000000003</v>
       </c>
       <c r="P36">
-        <v>804.44200000000001</v>
+        <v>88.906999999999996</v>
       </c>
       <c r="Q36">
-        <v>-15.478</v>
+        <v>19.137</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1911.8910000000001</v>
+        <v>1029.1199999999999</v>
       </c>
       <c r="U36">
-        <v>268.88499999999999</v>
+        <v>346.40199999999999</v>
       </c>
       <c r="V36">
-        <v>67.790000000000006</v>
+        <v>57.732999999999997</v>
       </c>
       <c r="W36">
-        <v>-23.033000000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-52.933</v>
+        <v>-21.561</v>
       </c>
       <c r="Y36">
-        <v>32.127000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>46.118000000000002</v>
+        <v>55.652999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>62.046999999999997</v>
+        <v>60.033999999999999</v>
       </c>
       <c r="D37">
-        <v>471.24799999999999</v>
+        <v>285.553</v>
       </c>
       <c r="E37">
-        <v>329.55200000000002</v>
+        <v>209.07900000000001</v>
       </c>
       <c r="F37">
-        <v>229.74700000000001</v>
+        <v>162.81700000000001</v>
       </c>
       <c r="G37">
-        <v>1117.182</v>
+        <v>927.98500000000001</v>
       </c>
       <c r="H37">
-        <v>3197.88</v>
+        <v>1396.2460000000001</v>
       </c>
       <c r="I37">
-        <v>144.28399999999999</v>
+        <v>55.753</v>
       </c>
       <c r="J37">
-        <v>644.88</v>
+        <v>60.2</v>
       </c>
       <c r="K37">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>470.38799999999998</v>
+        <v>159.93899999999999</v>
       </c>
       <c r="O37">
-        <v>1328.23</v>
+        <v>267.29899999999998</v>
       </c>
       <c r="P37">
-        <v>785.41399999999999</v>
+        <v>60.2</v>
       </c>
       <c r="Q37">
-        <v>26.506</v>
+        <v>56.917999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1869.65</v>
+        <v>1128.9469999999999</v>
       </c>
       <c r="U37">
-        <v>295.39100000000002</v>
+        <v>403.32</v>
       </c>
       <c r="V37">
-        <v>153.524</v>
+        <v>67.350999999999999</v>
       </c>
       <c r="W37">
-        <v>-22.788</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-110.01600000000001</v>
+        <v>-18.192</v>
       </c>
       <c r="Y37">
-        <v>37.945999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.601</v>
       </c>
       <c r="AA37">
-        <v>62.046999999999997</v>
+        <v>60.034999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1.6839999999999999</v>
+        <v>60.253999999999998</v>
       </c>
       <c r="D38">
-        <v>489.04399999999998</v>
+        <v>311.56</v>
       </c>
       <c r="E38">
-        <v>318.65199999999999</v>
+        <v>234.97399999999999</v>
       </c>
       <c r="F38">
-        <v>238.27</v>
+        <v>176.04900000000001</v>
       </c>
       <c r="G38">
-        <v>1108.7339999999999</v>
+        <v>980.02800000000002</v>
       </c>
       <c r="H38">
-        <v>3137.5410000000002</v>
+        <v>1494.5440000000001</v>
       </c>
       <c r="I38">
-        <v>158.03299999999999</v>
+        <v>53.319000000000003</v>
       </c>
       <c r="J38">
-        <v>649.43100000000004</v>
+        <v>57.991</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>413.05500000000001</v>
+        <v>186.886</v>
       </c>
       <c r="O38">
-        <v>1266.1079999999999</v>
+        <v>290.79500000000002</v>
       </c>
       <c r="P38">
-        <v>717.61900000000003</v>
+        <v>57.991</v>
       </c>
       <c r="Q38">
-        <v>-10.798999999999999</v>
+        <v>18.727</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4265</v>
+        <v>2079</v>
       </c>
       <c r="T38">
-        <v>1871.433</v>
+        <v>1203.749</v>
       </c>
       <c r="U38">
-        <v>284.59199999999998</v>
+        <v>422.04700000000003</v>
       </c>
       <c r="V38">
-        <v>93.546999999999997</v>
+        <v>72.347999999999999</v>
       </c>
       <c r="W38">
-        <v>-22.841999999999999</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-91.325000000000003</v>
+        <v>12.343</v>
       </c>
       <c r="Y38">
-        <v>39.290999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>4.2489999999999997</v>
       </c>
       <c r="AA38">
-        <v>1.6839999999999999</v>
+        <v>60.253999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>15.423999999999999</v>
+        <v>55.895000000000003</v>
       </c>
       <c r="D39">
-        <v>450.923</v>
+        <v>287.298</v>
       </c>
       <c r="E39">
-        <v>301.99799999999999</v>
+        <v>224.4</v>
       </c>
       <c r="F39">
-        <v>219.36799999999999</v>
+        <v>165.35400000000001</v>
       </c>
       <c r="G39">
-        <v>1130.5340000000001</v>
+        <v>993.61699999999996</v>
       </c>
       <c r="H39">
-        <v>3122.2370000000001</v>
+        <v>1530.307</v>
       </c>
       <c r="I39">
-        <v>157.971</v>
+        <v>66.225999999999999</v>
       </c>
       <c r="J39">
-        <v>637.73599999999999</v>
+        <v>58.496000000000002</v>
       </c>
       <c r="K39">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3.0209999999999999</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>589.33399999999995</v>
+        <v>172.376</v>
       </c>
       <c r="O39">
-        <v>1417.6569999999999</v>
+        <v>276.73500000000001</v>
       </c>
       <c r="P39">
-        <v>877.28700000000003</v>
+        <v>58.496000000000002</v>
       </c>
       <c r="Q39">
-        <v>24.023</v>
+        <v>39.773000000000003</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1704.58</v>
+        <v>1253.5719999999999</v>
       </c>
       <c r="U39">
-        <v>308.61500000000001</v>
+        <v>461.82</v>
       </c>
       <c r="V39">
-        <v>50.866</v>
+        <v>82.210999999999999</v>
       </c>
       <c r="W39">
-        <v>-22.728000000000002</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-0.16900000000000001</v>
+        <v>1.6160000000000001</v>
       </c>
       <c r="Y39">
-        <v>36.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>15.423999999999999</v>
+        <v>55.895000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>61.256999999999998</v>
+        <v>59.454000000000001</v>
       </c>
       <c r="D40">
-        <v>482.01499999999999</v>
+        <v>331.13299999999998</v>
       </c>
       <c r="E40">
-        <v>304.98099999999999</v>
+        <v>268.47000000000003</v>
       </c>
       <c r="F40">
-        <v>252.2</v>
+        <v>183.32300000000001</v>
       </c>
       <c r="G40">
-        <v>1186.2760000000001</v>
+        <v>899.00699999999995</v>
       </c>
       <c r="H40">
-        <v>3157.297</v>
+        <v>1571.4079999999999</v>
       </c>
       <c r="I40">
-        <v>147.48699999999999</v>
+        <v>71.349000000000004</v>
       </c>
       <c r="J40">
-        <v>645.11599999999999</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>583.16700000000003</v>
+        <v>199.20699999999999</v>
       </c>
       <c r="O40">
-        <v>1406.596</v>
+        <v>248.797</v>
       </c>
       <c r="P40">
-        <v>883.41499999999996</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>24.343</v>
+        <v>-177.29900000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1750.701</v>
+        <v>1322.6110000000001</v>
       </c>
       <c r="U40">
-        <v>332.95800000000003</v>
+        <v>284.52100000000002</v>
       </c>
       <c r="V40">
-        <v>63.149000000000001</v>
+        <v>42.68</v>
       </c>
       <c r="W40">
-        <v>-22.277999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-28.734000000000002</v>
+        <v>-25.556999999999999</v>
       </c>
       <c r="Y40">
-        <v>34.015999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>61.256999999999998</v>
+        <v>59.454000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>60.662999999999997</v>
+        <v>62.954999999999998</v>
       </c>
       <c r="D41">
-        <v>466.41399999999999</v>
+        <v>332.49700000000001</v>
       </c>
       <c r="E41">
-        <v>310.98899999999998</v>
+        <v>272.50099999999998</v>
       </c>
       <c r="F41">
-        <v>228.91399999999999</v>
+        <v>182.108</v>
       </c>
       <c r="G41">
-        <v>1228.6859999999999</v>
+        <v>1018.6950000000001</v>
       </c>
       <c r="H41">
-        <v>3212.9119999999998</v>
+        <v>1733.06</v>
       </c>
       <c r="I41">
-        <v>148.02600000000001</v>
+        <v>78.427999999999997</v>
       </c>
       <c r="J41">
-        <v>717.03399999999999</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>487.23899999999998</v>
+        <v>213.554</v>
       </c>
       <c r="O41">
-        <v>1404.046</v>
+        <v>292.93299999999999</v>
       </c>
       <c r="P41">
-        <v>833.93700000000001</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-12.962999999999999</v>
+        <v>95.382000000000005</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1808.866</v>
+        <v>1440.127</v>
       </c>
       <c r="U41">
-        <v>319.995</v>
+        <v>379.90300000000002</v>
       </c>
       <c r="V41">
-        <v>82.174000000000007</v>
+        <v>85.054000000000002</v>
       </c>
       <c r="W41">
-        <v>-22.291</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-90.945999999999998</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="Y41">
-        <v>38.249000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>4.0810000000000004</v>
       </c>
       <c r="AA41">
-        <v>60.662999999999997</v>
+        <v>62.954999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>339.72300000000001</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>954.80700000000002</v>
+      </c>
+      <c r="H42">
+        <v>1857.3520000000001</v>
+      </c>
+      <c r="I42">
+        <v>85.881</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>249.95099999999999</v>
+      </c>
+      <c r="O42">
+        <v>334.80399999999997</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>3215</v>
+      </c>
+      <c r="T42">
+        <v>1522.548</v>
+      </c>
+      <c r="U42">
+        <v>193.137</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>51.314999999999998</v>
+      </c>
+      <c r="D43">
+        <v>375.96899999999999</v>
+      </c>
+      <c r="E43">
+        <v>321.76900000000001</v>
+      </c>
+      <c r="F43">
+        <v>196.512</v>
+      </c>
+      <c r="G43">
+        <v>1022.44</v>
+      </c>
+      <c r="H43">
+        <v>1933.9590000000001</v>
+      </c>
+      <c r="I43">
+        <v>85.352000000000004</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>238.49600000000001</v>
+      </c>
+      <c r="O43">
+        <v>331.24299999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>57.091999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1602.7159999999999</v>
+      </c>
+      <c r="U43">
+        <v>250.22900000000001</v>
+      </c>
+      <c r="V43">
+        <v>62.386000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-9.5709999999999997</v>
+      </c>
+      <c r="X43">
+        <v>-7.7450000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>51.314999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>29.309000000000001</v>
+      </c>
+      <c r="D44">
+        <v>391.55500000000001</v>
+      </c>
+      <c r="E44">
+        <v>328.04700000000003</v>
+      </c>
+      <c r="F44">
+        <v>209.011</v>
+      </c>
+      <c r="G44">
+        <v>1020.0839999999999</v>
+      </c>
+      <c r="H44">
+        <v>1930.615</v>
+      </c>
+      <c r="I44">
+        <v>88.075000000000003</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>225.14400000000001</v>
+      </c>
+      <c r="O44">
+        <v>312.48500000000001</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-14.606999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1618.13</v>
+      </c>
+      <c r="U44">
+        <v>235.62200000000001</v>
+      </c>
+      <c r="V44">
+        <v>19.405000000000001</v>
+      </c>
+      <c r="W44">
+        <v>-9.5969999999999995</v>
+      </c>
+      <c r="X44">
+        <v>-18.643999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>29.309000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>64.718999999999994</v>
+      </c>
+      <c r="D45">
+        <v>371.327</v>
+      </c>
+      <c r="E45">
+        <v>320.411</v>
+      </c>
+      <c r="F45">
+        <v>202.797</v>
+      </c>
+      <c r="G45">
+        <v>1180.9059999999999</v>
+      </c>
+      <c r="H45">
+        <v>2102.2979999999998</v>
+      </c>
+      <c r="I45">
+        <v>82.233999999999995</v>
+      </c>
+      <c r="J45">
+        <v>247.74700000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>218.36500000000001</v>
+      </c>
+      <c r="O45">
+        <v>554.57100000000003</v>
+      </c>
+      <c r="P45">
+        <v>247.74700000000001</v>
+      </c>
+      <c r="Q45">
+        <v>138.87700000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1547.7270000000001</v>
+      </c>
+      <c r="U45">
+        <v>374.49900000000002</v>
+      </c>
+      <c r="V45">
+        <v>45.904000000000003</v>
+      </c>
+      <c r="W45">
+        <v>-9.5180000000000007</v>
+      </c>
+      <c r="X45">
+        <v>140.26300000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>64.718999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>76.131</v>
+      </c>
+      <c r="D46">
+        <v>405.21199999999999</v>
+      </c>
+      <c r="E46">
+        <v>329.58100000000002</v>
+      </c>
+      <c r="F46">
+        <v>224.78399999999999</v>
+      </c>
+      <c r="G46">
+        <v>1236.08</v>
+      </c>
+      <c r="H46">
+        <v>2149.114</v>
+      </c>
+      <c r="I46">
+        <v>84.19</v>
+      </c>
+      <c r="J46">
+        <v>247.86099999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>235.74100000000001</v>
+      </c>
+      <c r="O46">
+        <v>570.08500000000004</v>
+      </c>
+      <c r="P46">
+        <v>247.86099999999999</v>
+      </c>
+      <c r="Q46">
+        <v>66.346999999999994</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3084</v>
+      </c>
+      <c r="T46">
+        <v>1579.029</v>
+      </c>
+      <c r="U46">
+        <v>440.846</v>
+      </c>
+      <c r="V46">
+        <v>116.196</v>
+      </c>
+      <c r="W46">
+        <v>-9.3510000000000009</v>
+      </c>
+      <c r="X46">
+        <v>-38.429000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>76.131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>48.139000000000003</v>
+      </c>
+      <c r="D47">
+        <v>348.452</v>
+      </c>
+      <c r="E47">
+        <v>298.798</v>
+      </c>
+      <c r="F47">
+        <v>182.727</v>
+      </c>
+      <c r="G47">
+        <v>1243.3240000000001</v>
+      </c>
+      <c r="H47">
+        <v>2166.2130000000002</v>
+      </c>
+      <c r="I47">
+        <v>77.025999999999996</v>
+      </c>
+      <c r="J47">
+        <v>247.976</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>207.626</v>
+      </c>
+      <c r="O47">
+        <v>551.30600000000004</v>
+      </c>
+      <c r="P47">
+        <v>247.976</v>
+      </c>
+      <c r="Q47">
+        <v>7.32</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1614.9069999999999</v>
+      </c>
+      <c r="U47">
+        <v>448.166</v>
+      </c>
+      <c r="V47">
+        <v>48.994999999999997</v>
+      </c>
+      <c r="W47">
+        <v>-10.784000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-35.003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>48.139000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>41.093000000000004</v>
+      </c>
+      <c r="D48">
+        <v>338.291</v>
+      </c>
+      <c r="E48">
+        <v>268.55</v>
+      </c>
+      <c r="F48">
+        <v>170.029</v>
+      </c>
+      <c r="G48">
+        <v>1200.9290000000001</v>
+      </c>
+      <c r="H48">
+        <v>2114.806</v>
+      </c>
+      <c r="I48">
+        <v>79.611000000000004</v>
+      </c>
+      <c r="J48">
+        <v>248.09</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>208.42699999999999</v>
+      </c>
+      <c r="O48">
+        <v>550.03099999999995</v>
+      </c>
+      <c r="P48">
+        <v>248.09</v>
+      </c>
+      <c r="Q48">
+        <v>-18.395</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1564.7750000000001</v>
+      </c>
+      <c r="U48">
+        <v>429.77100000000002</v>
+      </c>
+      <c r="V48">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="W48">
+        <v>-10.701000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-70.614999999999995</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-3</v>
+      </c>
+      <c r="AA48">
+        <v>41.093000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>55.905000000000001</v>
+      </c>
+      <c r="D49">
+        <v>332.23</v>
+      </c>
+      <c r="E49">
+        <v>283.66899999999998</v>
+      </c>
+      <c r="F49">
+        <v>173.35300000000001</v>
+      </c>
+      <c r="G49">
+        <v>1226.182</v>
+      </c>
+      <c r="H49">
+        <v>2146.0140000000001</v>
+      </c>
+      <c r="I49">
+        <v>77.692999999999998</v>
+      </c>
+      <c r="J49">
+        <v>248.20500000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>201.33699999999999</v>
+      </c>
+      <c r="O49">
+        <v>543.59100000000001</v>
+      </c>
+      <c r="P49">
+        <v>248.20500000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-5.282</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1602.423</v>
+      </c>
+      <c r="U49">
+        <v>424.48899999999998</v>
+      </c>
+      <c r="V49">
+        <v>46.44</v>
+      </c>
+      <c r="W49">
+        <v>-10.535</v>
+      </c>
+      <c r="X49">
+        <v>-47.203000000000003</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>55.905000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>77.260999999999996</v>
+      </c>
+      <c r="D50">
+        <v>386.38499999999999</v>
+      </c>
+      <c r="E50">
+        <v>335.16300000000001</v>
+      </c>
+      <c r="F50">
+        <v>209.07599999999999</v>
+      </c>
+      <c r="G50">
+        <v>1165.2460000000001</v>
+      </c>
+      <c r="H50">
+        <v>2190.6550000000002</v>
+      </c>
+      <c r="I50">
+        <v>94.156000000000006</v>
+      </c>
+      <c r="J50">
+        <v>248.31899999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>241.56700000000001</v>
+      </c>
+      <c r="O50">
+        <v>590.75400000000002</v>
+      </c>
+      <c r="P50">
+        <v>248.31899999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-102.75</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2962</v>
+      </c>
+      <c r="T50">
+        <v>1599.9010000000001</v>
+      </c>
+      <c r="U50">
+        <v>321.73899999999998</v>
+      </c>
+      <c r="V50">
+        <v>112.874</v>
+      </c>
+      <c r="W50">
+        <v>-10.43</v>
+      </c>
+      <c r="X50">
+        <v>-91.507999999999996</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-2E-3</v>
+      </c>
+      <c r="AA50">
+        <v>77.260999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>51.636000000000003</v>
+      </c>
+      <c r="D51">
+        <v>348.58300000000003</v>
+      </c>
+      <c r="E51">
+        <v>306.08100000000002</v>
+      </c>
+      <c r="F51">
+        <v>183.98699999999999</v>
+      </c>
+      <c r="G51">
+        <v>1073.4880000000001</v>
+      </c>
+      <c r="H51">
+        <v>2078.375</v>
+      </c>
+      <c r="I51">
+        <v>84.04</v>
+      </c>
+      <c r="J51">
+        <v>248.434</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>215.00899999999999</v>
+      </c>
+      <c r="O51">
+        <v>553.74400000000003</v>
+      </c>
+      <c r="P51">
+        <v>248.434</v>
+      </c>
+      <c r="Q51">
+        <v>-75.731999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1524.6310000000001</v>
+      </c>
+      <c r="U51">
+        <v>246.00700000000001</v>
+      </c>
+      <c r="V51">
+        <v>61.959000000000003</v>
+      </c>
+      <c r="W51">
+        <v>-13.106</v>
+      </c>
+      <c r="X51">
+        <v>-120.07599999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>51.636000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>50.158000000000001</v>
+      </c>
+      <c r="D52">
+        <v>389.32900000000001</v>
+      </c>
+      <c r="E52">
+        <v>278.26499999999999</v>
+      </c>
+      <c r="F52">
+        <v>190.041</v>
+      </c>
+      <c r="G52">
+        <v>1268.8520000000001</v>
+      </c>
+      <c r="H52">
+        <v>2286.5160000000001</v>
+      </c>
+      <c r="I52">
+        <v>89.796999999999997</v>
+      </c>
+      <c r="J52">
+        <v>379.79899999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>264.85700000000003</v>
+      </c>
+      <c r="O52">
+        <v>729.428</v>
+      </c>
+      <c r="P52">
+        <v>394.79899999999998</v>
+      </c>
+      <c r="Q52">
+        <v>246.42599999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1557.088</v>
+      </c>
+      <c r="U52">
+        <v>492.43299999999999</v>
+      </c>
+      <c r="V52">
+        <v>135.304</v>
+      </c>
+      <c r="W52">
+        <v>-12.803000000000001</v>
+      </c>
+      <c r="X52">
+        <v>126.97499999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>50.158000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>46.485999999999997</v>
+      </c>
+      <c r="D53">
+        <v>358.14100000000002</v>
+      </c>
+      <c r="E53">
+        <v>281.61099999999999</v>
+      </c>
+      <c r="F53">
+        <v>172.89</v>
+      </c>
+      <c r="G53">
+        <v>1279.5029999999999</v>
+      </c>
+      <c r="H53">
+        <v>2325.8760000000002</v>
+      </c>
+      <c r="I53">
+        <v>93.861000000000004</v>
+      </c>
+      <c r="J53">
+        <v>376.16300000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>251.81299999999999</v>
+      </c>
+      <c r="O53">
+        <v>719.36500000000001</v>
+      </c>
+      <c r="P53">
+        <v>392.16300000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1606.511</v>
+      </c>
+      <c r="U53">
+        <v>492.19900000000001</v>
+      </c>
+      <c r="V53">
+        <v>52.527999999999999</v>
+      </c>
+      <c r="W53">
+        <v>-12.786</v>
+      </c>
+      <c r="X53">
+        <v>-30.535</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>46.485999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>28.734999999999999</v>
+      </c>
+      <c r="D54">
+        <v>400.31900000000002</v>
+      </c>
+      <c r="E54">
+        <v>286.57299999999998</v>
+      </c>
+      <c r="F54">
+        <v>191.78</v>
+      </c>
+      <c r="G54">
+        <v>1309.731</v>
+      </c>
+      <c r="H54">
+        <v>2343.3589999999999</v>
+      </c>
+      <c r="I54">
+        <v>85.73</v>
+      </c>
+      <c r="J54">
+        <v>372.52800000000002</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>276.51499999999999</v>
+      </c>
+      <c r="O54">
+        <v>729.97900000000004</v>
+      </c>
+      <c r="P54">
+        <v>387.52800000000002</v>
+      </c>
+      <c r="Q54">
+        <v>50.277000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2839</v>
+      </c>
+      <c r="T54">
+        <v>1613.38</v>
+      </c>
+      <c r="U54">
+        <v>542.476</v>
+      </c>
+      <c r="V54">
+        <v>105.17400000000001</v>
+      </c>
+      <c r="W54">
+        <v>-12.709</v>
+      </c>
+      <c r="X54">
+        <v>-42.476999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>28.734999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>29.893999999999998</v>
+      </c>
+      <c r="D55">
+        <v>351.54199999999997</v>
+      </c>
+      <c r="E55">
+        <v>270.16500000000002</v>
+      </c>
+      <c r="F55">
+        <v>169.12200000000001</v>
+      </c>
+      <c r="G55">
+        <v>1330.2</v>
+      </c>
+      <c r="H55">
+        <v>2368.8879999999999</v>
+      </c>
+      <c r="I55">
+        <v>91.965000000000003</v>
+      </c>
+      <c r="J55">
+        <v>368.892</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-3.75</v>
+      </c>
+      <c r="N55">
+        <v>271.161</v>
+      </c>
+      <c r="O55">
+        <v>724.85799999999995</v>
+      </c>
+      <c r="P55">
+        <v>384.892</v>
+      </c>
+      <c r="Q55">
+        <v>41.619</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1644.03</v>
+      </c>
+      <c r="U55">
+        <v>584.09500000000003</v>
+      </c>
+      <c r="V55">
+        <v>59.825000000000003</v>
+      </c>
+      <c r="W55">
+        <v>-14.085000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-7.7750000000000004</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>29.893999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>44.758000000000003</v>
+      </c>
+      <c r="D56">
+        <v>369.38</v>
+      </c>
+      <c r="E56">
+        <v>270.08600000000001</v>
+      </c>
+      <c r="F56">
+        <v>182.71799999999999</v>
+      </c>
+      <c r="G56">
+        <v>1362.54</v>
+      </c>
+      <c r="H56">
+        <v>2402.165</v>
+      </c>
+      <c r="I56">
+        <v>99.995999999999995</v>
+      </c>
+      <c r="J56">
+        <v>365.25700000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>299.76600000000002</v>
+      </c>
+      <c r="O56">
+        <v>750.42399999999998</v>
+      </c>
+      <c r="P56">
+        <v>381.25700000000001</v>
+      </c>
+      <c r="Q56">
+        <v>17.978000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1651.741</v>
+      </c>
+      <c r="U56">
+        <v>602.07299999999998</v>
+      </c>
+      <c r="V56">
+        <v>70.587999999999994</v>
+      </c>
+      <c r="W56">
+        <v>-14.16</v>
+      </c>
+      <c r="X56">
+        <v>-35.459000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>44.758000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>52.856999999999999</v>
+      </c>
+      <c r="D57">
+        <v>375.36599999999999</v>
+      </c>
+      <c r="E57">
+        <v>298.55900000000003</v>
+      </c>
+      <c r="F57">
+        <v>184.386</v>
+      </c>
+      <c r="G57">
+        <v>1335.175</v>
+      </c>
+      <c r="H57">
+        <v>2354.2919999999999</v>
+      </c>
+      <c r="I57">
+        <v>90.5</v>
+      </c>
+      <c r="J57">
+        <v>361.62200000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>287.82600000000002</v>
+      </c>
+      <c r="O57">
+        <v>732.55799999999999</v>
+      </c>
+      <c r="P57">
+        <v>377.52199999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1621.7339999999999</v>
+      </c>
+      <c r="U57">
+        <v>565.37300000000005</v>
+      </c>
+      <c r="V57">
+        <v>32.987000000000002</v>
+      </c>
+      <c r="W57">
+        <v>-14.164999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-45.213000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>52.856999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>72.751999999999995</v>
+      </c>
+      <c r="D58">
+        <v>434.36599999999999</v>
+      </c>
+      <c r="E58">
+        <v>354.65800000000002</v>
+      </c>
+      <c r="F58">
+        <v>214.738</v>
+      </c>
+      <c r="G58">
+        <v>1300.328</v>
+      </c>
+      <c r="H58">
+        <v>2349.3110000000001</v>
+      </c>
+      <c r="I58">
+        <v>98.173000000000002</v>
+      </c>
+      <c r="J58">
+        <v>357.98599999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>309.55700000000002</v>
+      </c>
+      <c r="O58">
+        <v>739.53800000000001</v>
+      </c>
+      <c r="P58">
+        <v>372.98599999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-33.999000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2741</v>
+      </c>
+      <c r="T58">
+        <v>1609.7729999999999</v>
+      </c>
+      <c r="U58">
+        <v>531.37400000000002</v>
+      </c>
+      <c r="V58">
+        <v>62.844000000000001</v>
+      </c>
+      <c r="W58">
+        <v>-14.103</v>
+      </c>
+      <c r="X58">
+        <v>-63.58</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>72.751999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>47.91</v>
+      </c>
+      <c r="D59">
+        <v>344.517</v>
+      </c>
+      <c r="E59">
+        <v>311.78699999999998</v>
+      </c>
+      <c r="F59">
+        <v>175.89699999999999</v>
+      </c>
+      <c r="G59">
+        <v>1321.4259999999999</v>
+      </c>
+      <c r="H59">
+        <v>2312.3580000000002</v>
+      </c>
+      <c r="I59">
+        <v>106.12</v>
+      </c>
+      <c r="J59">
+        <v>354.351</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-3.75</v>
+      </c>
+      <c r="N59">
+        <v>294.54199999999997</v>
+      </c>
+      <c r="O59">
+        <v>726.54</v>
+      </c>
+      <c r="P59">
+        <v>370.15100000000001</v>
+      </c>
+      <c r="Q59">
+        <v>16.405999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1585.818</v>
+      </c>
+      <c r="U59">
+        <v>547.78</v>
+      </c>
+      <c r="V59">
+        <v>74.927000000000007</v>
+      </c>
+      <c r="W59">
+        <v>-15.377000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-13.941000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>47.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>50.5</v>
+      </c>
+      <c r="D60">
+        <v>392.97500000000002</v>
+      </c>
+      <c r="E60">
+        <v>327.65300000000002</v>
+      </c>
+      <c r="F60">
+        <v>189.61500000000001</v>
+      </c>
+      <c r="G60">
+        <v>1372.923</v>
+      </c>
+      <c r="H60">
+        <v>2379.7159999999999</v>
+      </c>
+      <c r="I60">
+        <v>121.605</v>
+      </c>
+      <c r="J60">
+        <v>350.71499999999997</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>310.30700000000002</v>
+      </c>
+      <c r="O60">
+        <v>741.24099999999999</v>
+      </c>
+      <c r="P60">
+        <v>366.41500000000002</v>
+      </c>
+      <c r="Q60">
+        <v>12.41</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1638.4749999999999</v>
+      </c>
+      <c r="U60">
+        <v>560.19000000000005</v>
+      </c>
+      <c r="V60">
+        <v>48.932000000000002</v>
+      </c>
+      <c r="W60">
+        <v>-15.397</v>
+      </c>
+      <c r="X60">
+        <v>-32.090000000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>73.072000000000003</v>
+      </c>
+      <c r="D61">
+        <v>381.928</v>
+      </c>
+      <c r="E61">
+        <v>304.27</v>
+      </c>
+      <c r="F61">
+        <v>180.739</v>
+      </c>
+      <c r="G61">
+        <v>1346.2</v>
+      </c>
+      <c r="H61">
+        <v>2354.8029999999999</v>
+      </c>
+      <c r="I61">
+        <v>125.739</v>
+      </c>
+      <c r="J61">
+        <v>347.08</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>313.88299999999998</v>
+      </c>
+      <c r="O61">
+        <v>729.94500000000005</v>
+      </c>
+      <c r="P61">
+        <v>362.68</v>
+      </c>
+      <c r="Q61">
+        <v>-34.814</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1624.8579999999999</v>
+      </c>
+      <c r="U61">
+        <v>525.37599999999998</v>
+      </c>
+      <c r="V61">
+        <v>73.62</v>
+      </c>
+      <c r="W61">
+        <v>-15.419</v>
+      </c>
+      <c r="X61">
+        <v>-79.399000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>73.072000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>70.203999999999994</v>
+      </c>
+      <c r="D62">
+        <v>437.64699999999999</v>
+      </c>
+      <c r="E62">
+        <v>326.09800000000001</v>
+      </c>
+      <c r="F62">
+        <v>207.31</v>
+      </c>
+      <c r="G62">
+        <v>1287.5139999999999</v>
+      </c>
+      <c r="H62">
+        <v>2406.4</v>
+      </c>
+      <c r="I62">
+        <v>139.54</v>
+      </c>
+      <c r="J62">
+        <v>93.75</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>585.34500000000003</v>
+      </c>
+      <c r="O62">
+        <v>756.88499999999999</v>
+      </c>
+      <c r="P62">
+        <v>358.44400000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-52.591000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3003</v>
+      </c>
+      <c r="T62">
+        <v>1649.5150000000001</v>
+      </c>
+      <c r="U62">
+        <v>472.78500000000003</v>
+      </c>
+      <c r="V62">
+        <v>78.334999999999994</v>
+      </c>
+      <c r="W62">
+        <v>-15.206</v>
+      </c>
+      <c r="X62">
+        <v>-41.107999999999997</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>70.203999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1.125</v>
+      </c>
+      <c r="D63">
+        <v>379.47199999999998</v>
+      </c>
+      <c r="E63">
+        <v>298.52999999999997</v>
+      </c>
+      <c r="F63">
+        <v>177.69</v>
+      </c>
+      <c r="G63">
+        <v>1290.23</v>
+      </c>
+      <c r="H63">
+        <v>2413.2089999999998</v>
+      </c>
+      <c r="I63">
+        <v>106.39400000000001</v>
+      </c>
+      <c r="J63">
+        <v>90.2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-3.75</v>
+      </c>
+      <c r="N63">
+        <v>535.149</v>
+      </c>
+      <c r="O63">
+        <v>745.18</v>
+      </c>
+      <c r="P63">
+        <v>355.40899999999999</v>
+      </c>
+      <c r="Q63">
+        <v>37.828000000000003</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1668.029</v>
+      </c>
+      <c r="U63">
+        <v>510.613</v>
+      </c>
+      <c r="V63">
+        <v>45.945999999999998</v>
+      </c>
+      <c r="W63">
+        <v>-16.507000000000001</v>
+      </c>
+      <c r="X63">
+        <v>-16.292999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>45.368000000000002</v>
+      </c>
+      <c r="D64">
+        <v>402.72899999999998</v>
+      </c>
+      <c r="E64">
+        <v>279.32299999999998</v>
+      </c>
+      <c r="F64">
+        <v>183.322</v>
+      </c>
+      <c r="G64">
+        <v>1657.8219999999999</v>
+      </c>
+      <c r="H64">
+        <v>2794.951</v>
+      </c>
+      <c r="I64">
+        <v>101.17</v>
+      </c>
+      <c r="J64">
+        <v>505.44</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>522.35599999999999</v>
+      </c>
+      <c r="O64">
+        <v>1147.4069999999999</v>
+      </c>
+      <c r="P64">
+        <v>770.86400000000003</v>
+      </c>
+      <c r="Q64">
+        <v>392.56599999999997</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1647.5440000000001</v>
+      </c>
+      <c r="U64">
+        <v>903.17899999999997</v>
+      </c>
+      <c r="V64">
+        <v>87.87</v>
+      </c>
+      <c r="W64">
+        <v>-16.582999999999998</v>
+      </c>
+      <c r="X64">
+        <v>367.65699999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>45.368000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>58.633000000000003</v>
+      </c>
+      <c r="D65">
+        <v>405.22800000000001</v>
+      </c>
+      <c r="E65">
+        <v>309.60199999999998</v>
+      </c>
+      <c r="F65">
+        <v>191.376</v>
+      </c>
+      <c r="G65">
+        <v>1456.14</v>
+      </c>
+      <c r="H65">
+        <v>2587.8939999999998</v>
+      </c>
+      <c r="I65">
+        <v>109.663</v>
+      </c>
+      <c r="J65">
+        <v>501.70600000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>310.64800000000002</v>
+      </c>
+      <c r="O65">
+        <v>934.48800000000006</v>
+      </c>
+      <c r="P65">
+        <v>517.00599999999997</v>
+      </c>
+      <c r="Q65">
+        <v>-225.49100000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1653.4059999999999</v>
+      </c>
+      <c r="U65">
+        <v>677.68799999999999</v>
+      </c>
+      <c r="V65">
+        <v>88.790999999999997</v>
+      </c>
+      <c r="W65">
+        <v>-16.474</v>
+      </c>
+      <c r="X65">
+        <v>-308.012</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>58.633000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>61.5</v>
+      </c>
+      <c r="D66">
+        <v>474.738</v>
+      </c>
+      <c r="E66">
+        <v>352.02</v>
+      </c>
+      <c r="F66">
+        <v>214.733</v>
+      </c>
+      <c r="G66">
+        <v>1164.6569999999999</v>
+      </c>
+      <c r="H66">
+        <v>2619.7060000000001</v>
+      </c>
+      <c r="I66">
+        <v>114.22499999999999</v>
+      </c>
+      <c r="J66">
+        <v>501.92099999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>361.71199999999999</v>
+      </c>
+      <c r="O66">
+        <v>941.38</v>
+      </c>
+      <c r="P66">
+        <v>516.92100000000005</v>
+      </c>
+      <c r="Q66">
+        <v>-316.339</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3436</v>
+      </c>
+      <c r="T66">
+        <v>1678.326</v>
+      </c>
+      <c r="U66">
+        <v>361.34899999999999</v>
+      </c>
+      <c r="V66">
+        <v>97.144000000000005</v>
+      </c>
+      <c r="W66">
+        <v>-16.356000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-12.215999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>42.570999999999998</v>
+      </c>
+      <c r="D67">
+        <v>406.81400000000002</v>
+      </c>
+      <c r="E67">
+        <v>308.74</v>
+      </c>
+      <c r="F67">
+        <v>191.321</v>
+      </c>
+      <c r="G67">
+        <v>1176.1600000000001</v>
+      </c>
+      <c r="H67">
+        <v>2630.395</v>
+      </c>
+      <c r="I67">
+        <v>110.01300000000001</v>
+      </c>
+      <c r="J67">
+        <v>494.73700000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-7.5</v>
+      </c>
+      <c r="N67">
+        <v>341.17500000000001</v>
+      </c>
+      <c r="O67">
+        <v>910.82600000000002</v>
+      </c>
+      <c r="P67">
+        <v>509.73700000000002</v>
+      </c>
+      <c r="Q67">
+        <v>36.087000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1719.569</v>
+      </c>
+      <c r="U67">
+        <v>397.43599999999998</v>
+      </c>
+      <c r="V67">
+        <v>75.126999999999995</v>
+      </c>
+      <c r="W67">
+        <v>-20.456</v>
+      </c>
+      <c r="X67">
+        <v>-28.797999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>42.570999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>51.412999999999997</v>
+      </c>
+      <c r="D68">
+        <v>434.12400000000002</v>
+      </c>
+      <c r="E68">
+        <v>332.00900000000001</v>
+      </c>
+      <c r="F68">
+        <v>206.732</v>
+      </c>
+      <c r="G68">
+        <v>1224.1030000000001</v>
+      </c>
+      <c r="H68">
+        <v>2703.5039999999999</v>
+      </c>
+      <c r="I68">
+        <v>113.95699999999999</v>
+      </c>
+      <c r="J68">
+        <v>491.303</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>349.62400000000002</v>
+      </c>
+      <c r="O68">
+        <v>922.87300000000005</v>
+      </c>
+      <c r="P68">
+        <v>506.303</v>
+      </c>
+      <c r="Q68">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1780.6310000000001</v>
+      </c>
+      <c r="U68">
+        <v>403.59100000000001</v>
+      </c>
+      <c r="V68">
+        <v>30.126999999999999</v>
+      </c>
+      <c r="W68">
+        <v>-20.556999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-25.456</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>51.412999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>63.529000000000003</v>
+      </c>
+      <c r="D69">
+        <v>464.71199999999999</v>
+      </c>
+      <c r="E69">
+        <v>345.54199999999997</v>
+      </c>
+      <c r="F69">
+        <v>222.89099999999999</v>
+      </c>
+      <c r="G69">
+        <v>1282.078</v>
+      </c>
+      <c r="H69">
+        <v>2766.2750000000001</v>
+      </c>
+      <c r="I69">
+        <v>127.42</v>
+      </c>
+      <c r="J69">
+        <v>420.36900000000003</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>367.93799999999999</v>
+      </c>
+      <c r="O69">
+        <v>876.75699999999995</v>
+      </c>
+      <c r="P69">
+        <v>420.36900000000003</v>
+      </c>
+      <c r="Q69">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1889.518</v>
+      </c>
+      <c r="U69">
+        <v>436.96100000000001</v>
+      </c>
+      <c r="V69">
+        <v>104.08199999999999</v>
+      </c>
+      <c r="W69">
+        <v>-20.763000000000002</v>
+      </c>
+      <c r="X69">
+        <v>-70.308999999999997</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>63.529000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-50.29</v>
+      </c>
+      <c r="D70">
+        <v>494.78399999999999</v>
+      </c>
+      <c r="E70">
+        <v>346.68700000000001</v>
+      </c>
+      <c r="F70">
+        <v>237.83199999999999</v>
+      </c>
+      <c r="G70">
+        <v>1387.2190000000001</v>
+      </c>
+      <c r="H70">
+        <v>2810.0259999999998</v>
+      </c>
+      <c r="I70">
+        <v>106.389</v>
+      </c>
+      <c r="J70">
+        <v>420.68400000000003</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>394.93299999999999</v>
+      </c>
+      <c r="O70">
+        <v>975.46799999999996</v>
+      </c>
+      <c r="P70">
+        <v>420.68400000000003</v>
+      </c>
+      <c r="Q70">
+        <v>82.129000000000005</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3542</v>
+      </c>
+      <c r="T70">
+        <v>1834.558</v>
+      </c>
+      <c r="U70">
+        <v>519.09</v>
+      </c>
+      <c r="V70">
+        <v>98.915999999999997</v>
+      </c>
+      <c r="W70">
+        <v>-20.829000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-8.0489999999999995</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-50.29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>39.195</v>
+      </c>
+      <c r="D71">
+        <v>439.61799999999999</v>
+      </c>
+      <c r="E71">
+        <v>329.79199999999997</v>
+      </c>
+      <c r="F71">
+        <v>217.91399999999999</v>
+      </c>
+      <c r="G71">
+        <v>1269.2070000000001</v>
+      </c>
+      <c r="H71">
+        <v>2704</v>
+      </c>
+      <c r="I71">
+        <v>110.65300000000001</v>
+      </c>
+      <c r="J71">
+        <v>421</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>324.71300000000002</v>
+      </c>
+      <c r="O71">
+        <v>917.78200000000004</v>
+      </c>
+      <c r="P71">
+        <v>421</v>
+      </c>
+      <c r="Q71">
+        <v>-66.951999999999998</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1786.2180000000001</v>
+      </c>
+      <c r="U71">
+        <v>414.53800000000001</v>
+      </c>
+      <c r="V71">
+        <v>43.176000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-22.231999999999999</v>
+      </c>
+      <c r="X71">
+        <v>-113.967</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>39.195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>71.563000000000002</v>
+      </c>
+      <c r="D72">
+        <v>452.70699999999999</v>
+      </c>
+      <c r="E72">
+        <v>304.26499999999999</v>
+      </c>
+      <c r="F72">
+        <v>232.55099999999999</v>
+      </c>
+      <c r="G72">
+        <v>1285.8340000000001</v>
+      </c>
+      <c r="H72">
+        <v>2705.0749999999998</v>
+      </c>
+      <c r="I72">
+        <v>106.721</v>
+      </c>
+      <c r="J72">
+        <v>421.31599999999997</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>316.08999999999997</v>
+      </c>
+      <c r="O72">
+        <v>909.90899999999999</v>
+      </c>
+      <c r="P72">
+        <v>421.31599999999997</v>
+      </c>
+      <c r="Q72">
+        <v>55.804000000000002</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1795.1659999999999</v>
+      </c>
+      <c r="U72">
+        <v>472.642</v>
+      </c>
+      <c r="V72">
+        <v>110.16800000000001</v>
+      </c>
+      <c r="W72">
+        <v>-22.097999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-25.553999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>71.563000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>73.150999999999996</v>
+      </c>
+      <c r="D73">
+        <v>434.89800000000002</v>
+      </c>
+      <c r="E73">
+        <v>291.09399999999999</v>
+      </c>
+      <c r="F73">
+        <v>222.07400000000001</v>
+      </c>
+      <c r="G73">
+        <v>1354.731</v>
+      </c>
+      <c r="H73">
+        <v>2856.8850000000002</v>
+      </c>
+      <c r="I73">
+        <v>95.974999999999994</v>
+      </c>
+      <c r="J73">
+        <v>421.63200000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>321.94299999999998</v>
+      </c>
+      <c r="O73">
+        <v>915.66200000000003</v>
+      </c>
+      <c r="P73">
+        <v>421.63200000000001</v>
+      </c>
+      <c r="Q73">
+        <v>85.393000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1941.223</v>
+      </c>
+      <c r="U73">
+        <v>557.63499999999999</v>
+      </c>
+      <c r="V73">
+        <v>122.499</v>
+      </c>
+      <c r="W73">
+        <v>-22.120999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-17.378</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>73.150999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>98.516000000000005</v>
+      </c>
+      <c r="D74">
+        <v>448.46300000000002</v>
+      </c>
+      <c r="E74">
+        <v>323.74599999999998</v>
+      </c>
+      <c r="F74">
+        <v>231.12799999999999</v>
+      </c>
+      <c r="G74">
+        <v>1292.6469999999999</v>
+      </c>
+      <c r="H74">
+        <v>2781.2420000000002</v>
+      </c>
+      <c r="I74">
+        <v>95.495999999999995</v>
+      </c>
+      <c r="J74">
+        <v>421.94799999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>316.01400000000001</v>
+      </c>
+      <c r="O74">
+        <v>904.45600000000002</v>
+      </c>
+      <c r="P74">
+        <v>421.94799999999998</v>
+      </c>
+      <c r="Q74">
+        <v>-81.191000000000003</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3649</v>
+      </c>
+      <c r="T74">
+        <v>1876.7860000000001</v>
+      </c>
+      <c r="U74">
+        <v>512.14400000000001</v>
+      </c>
+      <c r="V74">
+        <v>98.313999999999993</v>
+      </c>
+      <c r="W74">
+        <v>-21.672000000000001</v>
+      </c>
+      <c r="X74">
+        <v>-162.04499999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>98.516000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>61.747999999999998</v>
+      </c>
+      <c r="D75">
+        <v>444.73599999999999</v>
+      </c>
+      <c r="E75">
+        <v>356.69299999999998</v>
+      </c>
+      <c r="F75">
+        <v>233.86099999999999</v>
+      </c>
+      <c r="G75">
+        <v>1127.4459999999999</v>
+      </c>
+      <c r="H75">
+        <v>3206.3090000000002</v>
+      </c>
+      <c r="I75">
+        <v>131.422</v>
+      </c>
+      <c r="J75">
+        <v>656.89099999999996</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-375</v>
+      </c>
+      <c r="N75">
+        <v>459.64800000000002</v>
+      </c>
+      <c r="O75">
+        <v>1303.614</v>
+      </c>
+      <c r="P75">
+        <v>802.99699999999996</v>
+      </c>
+      <c r="Q75">
+        <v>-227.78100000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1902.6949999999999</v>
+      </c>
+      <c r="U75">
+        <v>284.363</v>
+      </c>
+      <c r="V75">
+        <v>55.511000000000003</v>
+      </c>
+      <c r="W75">
+        <v>-23.030999999999999</v>
+      </c>
+      <c r="X75">
+        <v>308.31400000000002</v>
+      </c>
+      <c r="Y75">
+        <v>26.751000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>61.747999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>46.118000000000002</v>
+      </c>
+      <c r="D76">
+        <v>481.99799999999999</v>
+      </c>
+      <c r="E76">
+        <v>356.99099999999999</v>
+      </c>
+      <c r="F76">
+        <v>233.40799999999999</v>
+      </c>
+      <c r="G76">
+        <v>1130.722</v>
+      </c>
+      <c r="H76">
+        <v>3244.6860000000001</v>
+      </c>
+      <c r="I76">
+        <v>132.29400000000001</v>
+      </c>
+      <c r="J76">
+        <v>654.85799999999995</v>
+      </c>
+      <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>457.96899999999999</v>
+      </c>
+      <c r="O76">
+        <v>1332.7950000000001</v>
+      </c>
+      <c r="P76">
+        <v>804.44200000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-15.478</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1911.8910000000001</v>
+      </c>
+      <c r="U76">
+        <v>268.88499999999999</v>
+      </c>
+      <c r="V76">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="W76">
+        <v>-23.033000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-52.933</v>
+      </c>
+      <c r="Y76">
+        <v>32.127000000000002</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>46.118000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>62.046999999999997</v>
+      </c>
+      <c r="D77">
+        <v>471.24799999999999</v>
+      </c>
+      <c r="E77">
+        <v>329.55200000000002</v>
+      </c>
+      <c r="F77">
+        <v>229.74700000000001</v>
+      </c>
+      <c r="G77">
+        <v>1117.182</v>
+      </c>
+      <c r="H77">
+        <v>3197.88</v>
+      </c>
+      <c r="I77">
+        <v>144.28399999999999</v>
+      </c>
+      <c r="J77">
+        <v>644.88</v>
+      </c>
+      <c r="K77">
+        <v>87.5</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>470.38799999999998</v>
+      </c>
+      <c r="O77">
+        <v>1328.23</v>
+      </c>
+      <c r="P77">
+        <v>785.41399999999999</v>
+      </c>
+      <c r="Q77">
+        <v>26.506</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1869.65</v>
+      </c>
+      <c r="U77">
+        <v>295.39100000000002</v>
+      </c>
+      <c r="V77">
+        <v>153.524</v>
+      </c>
+      <c r="W77">
+        <v>-22.788</v>
+      </c>
+      <c r="X77">
+        <v>-110.01600000000001</v>
+      </c>
+      <c r="Y77">
+        <v>37.945999999999998</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>62.046999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="D78">
+        <v>489.04399999999998</v>
+      </c>
+      <c r="E78">
+        <v>318.65199999999999</v>
+      </c>
+      <c r="F78">
+        <v>238.27</v>
+      </c>
+      <c r="G78">
+        <v>1108.7339999999999</v>
+      </c>
+      <c r="H78">
+        <v>3137.5410000000002</v>
+      </c>
+      <c r="I78">
+        <v>158.03299999999999</v>
+      </c>
+      <c r="J78">
+        <v>649.43100000000004</v>
+      </c>
+      <c r="K78">
+        <v>16</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>413.05500000000001</v>
+      </c>
+      <c r="O78">
+        <v>1266.1079999999999</v>
+      </c>
+      <c r="P78">
+        <v>717.61900000000003</v>
+      </c>
+      <c r="Q78">
+        <v>-10.798999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4265</v>
+      </c>
+      <c r="T78">
+        <v>1871.433</v>
+      </c>
+      <c r="U78">
+        <v>284.59199999999998</v>
+      </c>
+      <c r="V78">
+        <v>93.546999999999997</v>
+      </c>
+      <c r="W78">
+        <v>-22.841999999999999</v>
+      </c>
+      <c r="X78">
+        <v>-91.325000000000003</v>
+      </c>
+      <c r="Y78">
+        <v>39.290999999999997</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>1.6839999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>15.423999999999999</v>
+      </c>
+      <c r="D79">
+        <v>450.923</v>
+      </c>
+      <c r="E79">
+        <v>301.99799999999999</v>
+      </c>
+      <c r="F79">
+        <v>219.36799999999999</v>
+      </c>
+      <c r="G79">
+        <v>1130.5340000000001</v>
+      </c>
+      <c r="H79">
+        <v>3122.2370000000001</v>
+      </c>
+      <c r="I79">
+        <v>157.971</v>
+      </c>
+      <c r="J79">
+        <v>637.73599999999999</v>
+      </c>
+      <c r="K79">
+        <v>191</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3.0209999999999999</v>
+      </c>
+      <c r="N79">
+        <v>589.33399999999995</v>
+      </c>
+      <c r="O79">
+        <v>1417.6569999999999</v>
+      </c>
+      <c r="P79">
+        <v>877.28700000000003</v>
+      </c>
+      <c r="Q79">
+        <v>24.023</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1704.58</v>
+      </c>
+      <c r="U79">
+        <v>308.61500000000001</v>
+      </c>
+      <c r="V79">
+        <v>50.866</v>
+      </c>
+      <c r="W79">
+        <v>-22.728000000000002</v>
+      </c>
+      <c r="X79">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>36.061999999999998</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>15.423999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>61.256999999999998</v>
+      </c>
+      <c r="D80">
+        <v>482.01499999999999</v>
+      </c>
+      <c r="E80">
+        <v>304.98099999999999</v>
+      </c>
+      <c r="F80">
+        <v>252.2</v>
+      </c>
+      <c r="G80">
+        <v>1186.2760000000001</v>
+      </c>
+      <c r="H80">
+        <v>3157.297</v>
+      </c>
+      <c r="I80">
+        <v>147.48699999999999</v>
+      </c>
+      <c r="J80">
+        <v>645.11599999999999</v>
+      </c>
+      <c r="K80">
+        <v>191</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>583.16700000000003</v>
+      </c>
+      <c r="O80">
+        <v>1406.596</v>
+      </c>
+      <c r="P80">
+        <v>883.41499999999996</v>
+      </c>
+      <c r="Q80">
+        <v>24.343</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1750.701</v>
+      </c>
+      <c r="U80">
+        <v>332.95800000000003</v>
+      </c>
+      <c r="V80">
+        <v>63.149000000000001</v>
+      </c>
+      <c r="W80">
+        <v>-22.277999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-28.734000000000002</v>
+      </c>
+      <c r="Y80">
+        <v>34.015999999999998</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>61.256999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>60.662999999999997</v>
+      </c>
+      <c r="D81">
+        <v>466.41399999999999</v>
+      </c>
+      <c r="E81">
+        <v>310.98899999999998</v>
+      </c>
+      <c r="F81">
+        <v>228.91399999999999</v>
+      </c>
+      <c r="G81">
+        <v>1228.6859999999999</v>
+      </c>
+      <c r="H81">
+        <v>3212.9119999999998</v>
+      </c>
+      <c r="I81">
+        <v>148.02600000000001</v>
+      </c>
+      <c r="J81">
+        <v>717.03399999999999</v>
+      </c>
+      <c r="K81">
+        <v>65</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>487.23899999999998</v>
+      </c>
+      <c r="O81">
+        <v>1404.046</v>
+      </c>
+      <c r="P81">
+        <v>833.93700000000001</v>
+      </c>
+      <c r="Q81">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1808.866</v>
+      </c>
+      <c r="U81">
+        <v>319.995</v>
+      </c>
+      <c r="V81">
+        <v>82.174000000000007</v>
+      </c>
+      <c r="W81">
+        <v>-22.291</v>
+      </c>
+      <c r="X81">
+        <v>-90.945999999999998</v>
+      </c>
+      <c r="Y81">
+        <v>38.249000000000002</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>60.662999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>75.239999999999995</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>524.33699999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>353.56099999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>246.53100000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1228.239</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3252.348</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>157.59200000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>726.54700000000003</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>438.13799999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1368.9739999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>777.74699999999996</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-22.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>4179</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1883.374</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>297.79500000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>116.17400000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-22.247</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-103.253</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>25.045999999999999</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>75.239999999999995</v>
       </c>
     </row>
